--- a/Recharge/July2021Recharge.xlsx
+++ b/Recharge/July2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,33 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Smart1001Ajay</author>
+    <author>Vijay</author>
   </authors>
   <commentList>
     <comment ref="K49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,12 +93,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="N169" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+5200-Manual
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="314">
   <si>
     <t>S.No.</t>
   </si>
@@ -1009,7 +1056,13 @@
     <t>Dues Amount</t>
   </si>
   <si>
+    <t>Kaler Zone Retailers (Recharge dues) =&gt;&gt;</t>
+  </si>
+  <si>
     <t>Tabakala</t>
+  </si>
+  <si>
+    <t>ARWAL ZONE RETAILERS (Recharge dues) =&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1070,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="24">
@@ -1047,14 +1100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1069,38 +1114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,34 +1130,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,11 +1154,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1178,7 +1186,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,6 +1231,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,7 +1354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,79 +1390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,7 +1420,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,13 +1474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,13 +1486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,26 +1521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1506,8 +1539,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,21 +1580,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,8 +1602,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1570,7 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1588,130 +1641,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2204,11 +2257,11 @@
   <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="M97" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2354,22 +2407,22 @@
       <c r="A2" s="23"/>
       <c r="B2" s="35">
         <f>SUM(F3:F1032)</f>
-        <v>401200</v>
+        <v>520700</v>
       </c>
       <c r="D2" s="24">
         <f>SUM(G3:G1032)</f>
-        <v>190320</v>
+        <v>314600</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="36">
         <f>G2/1.04+H2</f>
-        <v>401200</v>
+        <v>520700</v>
       </c>
       <c r="G2" s="24">
         <f>SUM(I2:AM2)</f>
-        <v>190320</v>
+        <v>314600</v>
       </c>
       <c r="H2" s="37">
         <f>SUM(H3:H1032)</f>
@@ -2393,15 +2446,15 @@
       </c>
       <c r="M2" s="29">
         <f t="shared" si="0"/>
-        <v>17680</v>
+        <v>69160</v>
       </c>
       <c r="N2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50960</v>
       </c>
       <c r="O2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21840</v>
       </c>
       <c r="P2" s="29">
         <f t="shared" si="0"/>
@@ -2643,11 +2696,11 @@
       </c>
       <c r="F5" s="19">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H5" s="38">
         <v>1500</v>
@@ -2656,7 +2709,9 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="M5" s="21">
+        <v>2080</v>
+      </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -2709,11 +2764,11 @@
       </c>
       <c r="F6" s="19">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H6" s="38">
         <v>0</v>
@@ -2726,7 +2781,9 @@
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="M6" s="21">
+        <v>2080</v>
+      </c>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -2779,11 +2836,11 @@
       </c>
       <c r="F7" s="19">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H7" s="38">
         <v>14000</v>
@@ -2799,7 +2856,9 @@
         <v>2080</v>
       </c>
       <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="21">
+        <v>2080</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -2851,11 +2910,11 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H8" s="38">
         <v>2000</v>
@@ -2866,7 +2925,9 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="21">
+        <v>2080</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -2980,11 +3041,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H10" s="38">
         <v>5000</v>
@@ -2995,7 +3056,9 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="21">
+        <v>5200</v>
+      </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -3238,11 +3301,11 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H14" s="38">
         <v>2000</v>
@@ -3256,7 +3319,9 @@
         <v>2080</v>
       </c>
       <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="21">
+        <v>2080</v>
+      </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -3959,11 +4024,11 @@
       </c>
       <c r="F25" s="19">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G25" s="19">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H25" s="38">
         <v>0</v>
@@ -3974,7 +4039,9 @@
         <v>2080</v>
       </c>
       <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="M25" s="21">
+        <v>2080</v>
+      </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
@@ -4024,11 +4091,11 @@
       </c>
       <c r="F26" s="19">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G26" s="19">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H26" s="38">
         <v>0</v>
@@ -4041,7 +4108,9 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="O26" s="21">
+        <v>5200</v>
+      </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
@@ -4089,11 +4158,11 @@
       </c>
       <c r="F27" s="19">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H27" s="38">
         <v>1000</v>
@@ -4106,7 +4175,9 @@
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="M27" s="21">
+        <v>2080</v>
+      </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -4284,11 +4355,11 @@
       </c>
       <c r="F30" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H30" s="38">
         <v>0</v>
@@ -4299,7 +4370,9 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="O30" s="21">
+        <v>2080</v>
+      </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
@@ -4479,11 +4552,11 @@
       </c>
       <c r="F33" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G33" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H33" s="38">
         <v>0</v>
@@ -4493,7 +4566,9 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="21">
+        <v>2080</v>
+      </c>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -5122,11 +5197,11 @@
       </c>
       <c r="F43" s="19">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G43" s="19">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H43" s="38">
         <v>2000</v>
@@ -5140,7 +5215,9 @@
       <c r="M43" s="21">
         <v>2080</v>
       </c>
-      <c r="N43" s="21"/>
+      <c r="N43" s="21">
+        <v>2080</v>
+      </c>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
@@ -5254,11 +5331,11 @@
       </c>
       <c r="F45" s="19">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G45" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H45" s="38">
         <v>5000</v>
@@ -5269,7 +5346,9 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
+      <c r="O45" s="21">
+        <v>5200</v>
+      </c>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
@@ -5317,11 +5396,11 @@
       </c>
       <c r="F46" s="19">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G46" s="19">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H46" s="38">
         <v>4000</v>
@@ -5332,7 +5411,9 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
+      <c r="M46" s="21">
+        <v>2080</v>
+      </c>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
@@ -5514,11 +5595,11 @@
       </c>
       <c r="F49" s="19">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H49" s="38">
         <v>2000</v>
@@ -5530,7 +5611,7 @@
       </c>
       <c r="L49" s="21"/>
       <c r="M49" s="21">
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
@@ -5581,11 +5662,11 @@
       </c>
       <c r="F50" s="19">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G50" s="19">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H50" s="38">
         <v>0</v>
@@ -5596,7 +5677,9 @@
         <v>2080</v>
       </c>
       <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
+      <c r="M50" s="21">
+        <v>2080</v>
+      </c>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
@@ -5646,11 +5729,11 @@
       </c>
       <c r="F51" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G51" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H51" s="38">
         <v>0</v>
@@ -5660,7 +5743,9 @@
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
+      <c r="N51" s="21">
+        <v>2080</v>
+      </c>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
@@ -5772,11 +5857,11 @@
       </c>
       <c r="F53" s="19">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G53" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H53" s="38">
         <v>6000</v>
@@ -5787,7 +5872,9 @@
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
+      <c r="O53" s="21">
+        <v>2080</v>
+      </c>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
@@ -5835,11 +5922,11 @@
       </c>
       <c r="F54" s="19">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G54" s="19">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H54" s="38">
         <v>4000</v>
@@ -5850,7 +5937,9 @@
         <v>2080</v>
       </c>
       <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
+      <c r="M54" s="21">
+        <v>2080</v>
+      </c>
       <c r="N54" s="21"/>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
@@ -5965,11 +6054,11 @@
       </c>
       <c r="F56" s="19">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G56" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H56" s="38">
         <v>1000</v>
@@ -5978,7 +6067,9 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
+      <c r="M56" s="42">
+        <v>1040</v>
+      </c>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
@@ -6155,11 +6246,11 @@
       </c>
       <c r="F59" s="19">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G59" s="19">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H59" s="38">
         <v>5000</v>
@@ -6171,7 +6262,9 @@
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
+      <c r="N59" s="21">
+        <v>5200</v>
+      </c>
       <c r="O59" s="21"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
@@ -6550,11 +6643,11 @@
       </c>
       <c r="F65" s="19">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G65" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H65" s="33">
         <v>2000</v>
@@ -6564,7 +6657,9 @@
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
+      <c r="N65" s="21">
+        <v>2080</v>
+      </c>
       <c r="O65" s="21"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
@@ -7064,11 +7159,11 @@
       </c>
       <c r="F73" s="19">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G73" s="19">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H73" s="38">
         <v>0</v>
@@ -7082,7 +7177,9 @@
       </c>
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
+      <c r="N73" s="21">
+        <v>2080</v>
+      </c>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
       <c r="Q73" s="21"/>
@@ -7132,11 +7229,11 @@
       </c>
       <c r="F74" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G74" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H74" s="38">
         <v>0</v>
@@ -7146,7 +7243,9 @@
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
+      <c r="N74" s="21">
+        <v>2080</v>
+      </c>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
@@ -7388,11 +7487,11 @@
       </c>
       <c r="F78" s="19">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G78" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H78" s="38">
         <v>5000</v>
@@ -7402,7 +7501,9 @@
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
+      <c r="N78" s="21">
+        <v>5200</v>
+      </c>
       <c r="O78" s="21"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
@@ -7451,11 +7552,11 @@
       </c>
       <c r="F79" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G79" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H79" s="38">
         <v>0</v>
@@ -7465,7 +7566,9 @@
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
+      <c r="N79" s="21">
+        <v>2080</v>
+      </c>
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
@@ -7828,11 +7931,11 @@
       </c>
       <c r="F85" s="19">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G85" s="19">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H85" s="38">
         <v>5000</v>
@@ -7843,7 +7946,9 @@
       </c>
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
+      <c r="M85" s="21">
+        <v>5200</v>
+      </c>
       <c r="N85" s="21"/>
       <c r="O85" s="21"/>
       <c r="P85" s="21"/>
@@ -8392,11 +8497,11 @@
       </c>
       <c r="F94" s="19">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G94" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H94" s="38">
         <v>1000</v>
@@ -8405,7 +8510,9 @@
       <c r="J94" s="21"/>
       <c r="K94" s="21"/>
       <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
+      <c r="M94" s="21">
+        <v>1040</v>
+      </c>
       <c r="N94" s="21"/>
       <c r="O94" s="21"/>
       <c r="P94" s="21"/>
@@ -8572,11 +8679,11 @@
       </c>
       <c r="F97" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G97" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H97" s="38">
         <v>0</v>
@@ -8586,7 +8693,9 @@
       <c r="K97" s="21"/>
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
+      <c r="N97" s="42">
+        <v>1040</v>
+      </c>
       <c r="O97" s="21"/>
       <c r="P97" s="21"/>
       <c r="Q97" s="21"/>
@@ -9204,11 +9313,11 @@
       </c>
       <c r="F107" s="19">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G107" s="19">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>5200</v>
       </c>
       <c r="H107" s="38">
         <v>0</v>
@@ -9222,7 +9331,9 @@
         <v>1040</v>
       </c>
       <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
+      <c r="N107" s="21">
+        <v>3120</v>
+      </c>
       <c r="O107" s="21"/>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -9463,11 +9574,11 @@
       </c>
       <c r="F111" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G111" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="H111" s="38">
         <v>0</v>
@@ -9476,7 +9587,9 @@
       <c r="J111" s="21"/>
       <c r="K111" s="44"/>
       <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
+      <c r="M111" s="42">
+        <v>1560</v>
+      </c>
       <c r="N111" s="21"/>
       <c r="O111" s="21"/>
       <c r="P111" s="21"/>
@@ -9529,11 +9642,11 @@
       </c>
       <c r="F112" s="19">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="G112" s="19">
         <f t="shared" si="7"/>
-        <v>1040</v>
+        <v>6240</v>
       </c>
       <c r="H112" s="38">
         <v>0</v>
@@ -9544,9 +9657,13 @@
         <v>1040</v>
       </c>
       <c r="L112" s="21"/>
-      <c r="M112" s="21"/>
+      <c r="M112" s="42">
+        <v>3120</v>
+      </c>
       <c r="N112" s="21"/>
-      <c r="O112" s="21"/>
+      <c r="O112" s="21">
+        <v>2080</v>
+      </c>
       <c r="P112" s="21"/>
       <c r="Q112" s="21"/>
       <c r="R112" s="21"/>
@@ -9597,11 +9714,11 @@
       </c>
       <c r="F113" s="19">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G113" s="19">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H113" s="38">
         <v>0</v>
@@ -9612,7 +9729,9 @@
         <v>2080</v>
       </c>
       <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
+      <c r="M113" s="21">
+        <v>2080</v>
+      </c>
       <c r="N113" s="21"/>
       <c r="O113" s="21"/>
       <c r="P113" s="21"/>
@@ -9747,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:15">
       <c r="A118" s="20">
         <v>115</v>
       </c>
@@ -9762,14 +9881,20 @@
       </c>
       <c r="F118" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G118" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="H118" s="38">
         <v>0</v>
+      </c>
+      <c r="N118" s="46">
+        <v>3120</v>
+      </c>
+      <c r="O118" s="20">
+        <v>3120</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9819,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:13">
       <c r="A121" s="20">
         <v>118</v>
       </c>
@@ -9834,17 +9959,20 @@
       </c>
       <c r="F121" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G121" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H121" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" s="46">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="20">
         <v>119</v>
       </c>
@@ -9859,16 +9987,19 @@
       </c>
       <c r="F122" s="19">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G122" s="19">
         <f t="shared" si="7"/>
+        <v>4160</v>
+      </c>
+      <c r="H122" s="38">
+        <v>0</v>
+      </c>
+      <c r="L122" s="46">
         <v>2080</v>
       </c>
-      <c r="H122" s="38">
-        <v>0</v>
-      </c>
-      <c r="L122" s="46">
+      <c r="M122" s="46">
         <v>2080</v>
       </c>
     </row>
@@ -9909,11 +10040,11 @@
       </c>
       <c r="F124" s="19">
         <f t="shared" si="8"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G124" s="19">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H124" s="38">
         <v>0</v>
@@ -9925,7 +10056,9 @@
       </c>
       <c r="L124" s="21"/>
       <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
+      <c r="N124" s="21">
+        <v>1040</v>
+      </c>
       <c r="O124" s="21"/>
       <c r="P124" s="21"/>
       <c r="Q124" s="21"/>
@@ -10100,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:13">
       <c r="A131" s="20">
         <v>128</v>
       </c>
@@ -10115,14 +10248,17 @@
       </c>
       <c r="F131" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G131" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H131" s="38">
         <v>0</v>
+      </c>
+      <c r="M131" s="46">
+        <v>1040</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -10222,7 +10358,7 @@
       <c r="AK134" s="21"/>
       <c r="AL134" s="21"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:13">
       <c r="A135" s="20">
         <v>132</v>
       </c>
@@ -10234,14 +10370,17 @@
       </c>
       <c r="F135" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G135" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H135" s="38">
         <v>0</v>
+      </c>
+      <c r="M135" s="46">
+        <v>3120</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -10385,11 +10524,11 @@
       </c>
       <c r="F142" s="19">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="G142" s="19">
         <f t="shared" si="9"/>
-        <v>3120</v>
+        <v>9360</v>
       </c>
       <c r="H142" s="38">
         <v>0</v>
@@ -10400,8 +10539,12 @@
         <v>3120</v>
       </c>
       <c r="L142" s="21"/>
-      <c r="M142" s="21"/>
-      <c r="N142" s="21"/>
+      <c r="M142" s="42">
+        <v>3120</v>
+      </c>
+      <c r="N142" s="21">
+        <v>3120</v>
+      </c>
       <c r="O142" s="21"/>
       <c r="P142" s="21"/>
       <c r="Q142" s="21"/>
@@ -10857,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:14">
       <c r="A161" s="20">
         <v>158</v>
       </c>
@@ -10869,11 +11012,11 @@
       </c>
       <c r="F161" s="19">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G161" s="19">
         <f t="shared" si="11"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="H161" s="38">
         <v>0</v>
@@ -10882,6 +11025,9 @@
         <v>1040</v>
       </c>
       <c r="L161" s="20">
+        <v>2080</v>
+      </c>
+      <c r="N161" s="20">
         <v>2080</v>
       </c>
     </row>
@@ -10971,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:13">
       <c r="A167" s="20">
         <v>164</v>
       </c>
@@ -10983,11 +11129,11 @@
       </c>
       <c r="F167" s="19">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="G167" s="19">
         <f t="shared" si="11"/>
-        <v>7280</v>
+        <v>12480</v>
       </c>
       <c r="H167" s="38">
         <v>0</v>
@@ -10996,6 +11142,9 @@
         <v>2080</v>
       </c>
       <c r="L167" s="20">
+        <v>5200</v>
+      </c>
+      <c r="M167" s="20">
         <v>5200</v>
       </c>
     </row>
@@ -11033,11 +11182,11 @@
       </c>
       <c r="F169" s="19">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G169" s="19">
         <f t="shared" si="11"/>
-        <v>2080</v>
+        <v>9360</v>
       </c>
       <c r="H169" s="38">
         <v>0</v>
@@ -11049,7 +11198,9 @@
       </c>
       <c r="L169" s="21"/>
       <c r="M169" s="21"/>
-      <c r="N169" s="21"/>
+      <c r="N169" s="42">
+        <v>7280</v>
+      </c>
       <c r="O169" s="21"/>
       <c r="P169" s="21"/>
       <c r="Q169" s="21"/>
@@ -11180,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:14">
       <c r="A174" s="20">
         <v>171</v>
       </c>
@@ -11192,16 +11343,19 @@
       </c>
       <c r="F174" s="19">
         <f t="shared" si="12"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G174" s="19">
         <f t="shared" si="11"/>
+        <v>2080</v>
+      </c>
+      <c r="H174" s="38">
+        <v>0</v>
+      </c>
+      <c r="L174" s="46">
         <v>1040</v>
       </c>
-      <c r="H174" s="38">
-        <v>0</v>
-      </c>
-      <c r="L174" s="46">
+      <c r="N174" s="46">
         <v>1040</v>
       </c>
     </row>
@@ -11247,11 +11401,11 @@
   <dimension ref="A1:AV175"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I148" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
+      <selection pane="bottomRight" activeCell="N168" sqref="N168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11399,14 +11553,14 @@
       <c r="E2" s="23"/>
       <c r="F2" s="24">
         <f>SUM(H3:H1032)</f>
-        <v>147000</v>
+        <v>284000</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="26">
         <f t="shared" ref="H2:H35" si="0">SUM(I2:AM2)</f>
-        <v>147000</v>
+        <v>284000</v>
       </c>
       <c r="I2" s="29">
         <f>SUM(I3:I1032)</f>
@@ -11426,11 +11580,11 @@
       </c>
       <c r="M2" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>74500</v>
       </c>
       <c r="N2" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="O2" s="29">
         <f t="shared" si="1"/>
@@ -11753,7 +11907,7 @@
       </c>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I6" s="30">
         <v>2000</v>
@@ -11762,7 +11916,9 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="30">
+        <v>2000</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -11821,14 +11977,16 @@
       </c>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="30">
+        <v>10000</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -12012,7 +12170,7 @@
       </c>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="I10" s="21">
         <v>2500</v>
@@ -12022,7 +12180,9 @@
         <v>5000</v>
       </c>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="21">
+        <v>2500</v>
+      </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -12142,13 +12302,15 @@
       </c>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="M12" s="21">
+        <v>2500</v>
+      </c>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -12205,14 +12367,16 @@
       </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="30">
+        <v>5000</v>
+      </c>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -12271,7 +12435,7 @@
       </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="30">
@@ -12280,7 +12444,9 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="21">
+        <v>4000</v>
+      </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -12336,13 +12502,15 @@
       </c>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="M15" s="21">
+        <v>4000</v>
+      </c>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -12593,7 +12761,7 @@
       </c>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I19" s="30">
         <v>3000</v>
@@ -12601,7 +12769,9 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="M19" s="30">
+        <v>3000</v>
+      </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
@@ -12661,13 +12831,15 @@
       </c>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="M20" s="21">
+        <v>5000</v>
+      </c>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
@@ -12727,14 +12899,16 @@
       </c>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="N21" s="21">
+        <v>4000</v>
+      </c>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
@@ -12858,14 +13032,16 @@
       </c>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="30">
+        <v>5000</v>
+      </c>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
@@ -12984,13 +13160,15 @@
       </c>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="M25" s="21">
+        <v>2000</v>
+      </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
@@ -13112,7 +13290,7 @@
       </c>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21">
@@ -13122,7 +13300,9 @@
         <v>1000</v>
       </c>
       <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="M27" s="21">
+        <v>1000</v>
+      </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
@@ -13179,13 +13359,15 @@
       </c>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="M28" s="21">
+        <v>1000</v>
+      </c>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
@@ -13242,13 +13424,15 @@
       </c>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="M29" s="30">
+        <v>2000</v>
+      </c>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
@@ -13365,7 +13549,7 @@
       </c>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="30">
@@ -13373,7 +13557,9 @@
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="M31" s="21">
+        <v>2000</v>
+      </c>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
@@ -13737,13 +13923,15 @@
       </c>
       <c r="H37" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
+      <c r="M37" s="30">
+        <v>5000</v>
+      </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
@@ -13925,13 +14113,15 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="M40" s="30">
+        <v>2000</v>
+      </c>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
@@ -14045,7 +14235,7 @@
       </c>
       <c r="H42" s="19">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21">
@@ -14053,7 +14243,9 @@
       </c>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="M42" s="21">
+        <v>2000</v>
+      </c>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
@@ -14110,7 +14302,7 @@
       </c>
       <c r="H43" s="19">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -14118,7 +14310,9 @@
         <v>2000</v>
       </c>
       <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="M43" s="21">
+        <v>2000</v>
+      </c>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -14172,13 +14366,15 @@
       </c>
       <c r="H44" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="M44" s="30">
+        <v>2000</v>
+      </c>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
@@ -14359,7 +14555,7 @@
       </c>
       <c r="H47" s="19">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -14367,7 +14563,9 @@
         <v>4000</v>
       </c>
       <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="M47" s="21">
+        <v>2000</v>
+      </c>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -14493,14 +14691,18 @@
       </c>
       <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
+      <c r="M49" s="21">
+        <v>6000</v>
+      </c>
+      <c r="N49" s="21">
+        <v>2000</v>
+      </c>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
@@ -14559,14 +14761,16 @@
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
+      <c r="N50" s="30">
+        <v>4000</v>
+      </c>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
@@ -14742,14 +14946,16 @@
       </c>
       <c r="H53" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
+      <c r="N53" s="30">
+        <v>6000</v>
+      </c>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
@@ -14927,13 +15133,15 @@
       </c>
       <c r="H56" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
+      <c r="M56" s="21">
+        <v>2000</v>
+      </c>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
@@ -15918,7 +16126,7 @@
       </c>
       <c r="H72" s="19">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
@@ -15926,7 +16134,9 @@
         <v>5000</v>
       </c>
       <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
+      <c r="M72" s="21">
+        <v>5000</v>
+      </c>
       <c r="N72" s="21"/>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
@@ -17016,14 +17226,16 @@
       </c>
       <c r="H90" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
       <c r="K90" s="21"/>
       <c r="L90" s="21"/>
       <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
+      <c r="N90" s="30">
+        <v>1500</v>
+      </c>
       <c r="O90" s="21"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
@@ -17401,19 +17613,27 @@
       <c r="C97" s="20">
         <v>95</v>
       </c>
+      <c r="E97" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="G97" s="20" t="s">
         <v>129</v>
       </c>
       <c r="H97" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
       <c r="K97" s="21"/>
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
+      <c r="N97" s="30">
+        <v>1000</v>
+      </c>
       <c r="O97" s="21"/>
       <c r="P97" s="21"/>
       <c r="Q97" s="21"/>
@@ -17936,7 +18156,7 @@
       </c>
       <c r="H107" s="19">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
@@ -17944,8 +18164,12 @@
         <v>1000</v>
       </c>
       <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
+      <c r="M107" s="21">
+        <v>1000</v>
+      </c>
+      <c r="N107" s="21">
+        <v>3000</v>
+      </c>
       <c r="O107" s="21"/>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
@@ -18145,13 +18369,15 @@
       </c>
       <c r="H111" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
       <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
+      <c r="M111" s="21">
+        <v>1500</v>
+      </c>
       <c r="N111" s="21"/>
       <c r="O111" s="21"/>
       <c r="P111" s="21"/>
@@ -18178,7 +18404,7 @@
       <c r="AK111" s="21"/>
       <c r="AL111" s="21"/>
     </row>
-    <row r="112" spans="3:8">
+    <row r="112" spans="3:14">
       <c r="C112" s="20">
         <v>109</v>
       </c>
@@ -18190,10 +18416,13 @@
       </c>
       <c r="H112" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:11">
+        <v>4000</v>
+      </c>
+      <c r="N112" s="20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13">
       <c r="C113" s="20">
         <v>110</v>
       </c>
@@ -18205,9 +18434,12 @@
       </c>
       <c r="H113" s="19">
         <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="K113" s="20">
         <v>2000</v>
       </c>
-      <c r="K113" s="20">
+      <c r="M113" s="20">
         <v>2000</v>
       </c>
     </row>
@@ -18316,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:8">
+    <row r="121" spans="3:14">
       <c r="C121" s="20">
         <v>118</v>
       </c>
@@ -18328,10 +18560,13 @@
       </c>
       <c r="H121" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8">
+        <v>1000</v>
+      </c>
+      <c r="N121" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="3:14">
       <c r="C122" s="20">
         <v>119</v>
       </c>
@@ -18343,7 +18578,10 @@
       </c>
       <c r="H122" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="N122" s="20">
+        <v>4000</v>
       </c>
     </row>
     <row r="123" spans="3:8">
@@ -18361,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:11">
+    <row r="124" spans="3:14">
       <c r="C124" s="20">
         <v>121</v>
       </c>
@@ -18373,10 +18611,13 @@
       </c>
       <c r="H124" s="19">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K124" s="20">
         <v>2000</v>
+      </c>
+      <c r="N124" s="20">
+        <v>1000</v>
       </c>
     </row>
     <row r="125" spans="3:8">
@@ -18466,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:8">
+    <row r="131" spans="3:13">
       <c r="C131" s="20">
         <v>128</v>
       </c>
@@ -18478,7 +18719,10 @@
       </c>
       <c r="H131" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="M131" s="20">
+        <v>1000</v>
       </c>
     </row>
     <row r="132" spans="3:8">
@@ -18529,7 +18773,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="3:8">
+    <row r="135" spans="3:13">
       <c r="C135" s="20">
         <v>132</v>
       </c>
@@ -18541,7 +18785,10 @@
       </c>
       <c r="H135" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="M135" s="20">
+        <v>3000</v>
       </c>
     </row>
     <row r="136" spans="3:8">
@@ -18631,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:8">
+    <row r="142" spans="3:13">
       <c r="C142" s="20">
         <v>139</v>
       </c>
@@ -18643,7 +18890,10 @@
       </c>
       <c r="H142" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="M142" s="20">
+        <v>6000</v>
       </c>
     </row>
     <row r="143" spans="3:8">
@@ -18790,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:11">
+    <row r="153" spans="3:13">
       <c r="C153" s="20">
         <v>150</v>
       </c>
@@ -18805,10 +19055,13 @@
       </c>
       <c r="H153" s="19">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="K153" s="32">
         <v>3000</v>
+      </c>
+      <c r="M153" s="20">
+        <v>2000</v>
       </c>
     </row>
     <row r="154" spans="3:8">
@@ -18898,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:11">
+    <row r="161" spans="3:13">
       <c r="C161" s="20">
         <v>158</v>
       </c>
@@ -18913,10 +19166,13 @@
       </c>
       <c r="H161" s="19">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="K161" s="32">
         <v>1000</v>
+      </c>
+      <c r="M161" s="32">
+        <v>2000</v>
       </c>
     </row>
     <row r="162" spans="3:8">
@@ -18970,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:12">
+    <row r="167" spans="3:14">
       <c r="C167" s="20">
         <v>164</v>
       </c>
@@ -18985,10 +19241,13 @@
       </c>
       <c r="H167" s="19">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L167" s="32">
         <v>7000</v>
+      </c>
+      <c r="N167" s="32">
+        <v>5000</v>
       </c>
     </row>
     <row r="168" spans="3:8">
@@ -19093,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:12">
+    <row r="174" spans="3:13">
       <c r="C174" s="20">
         <v>171</v>
       </c>
@@ -19108,13 +19367,16 @@
       </c>
       <c r="H174" s="19">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L174" s="32">
         <v>1000</v>
       </c>
-    </row>
-    <row r="175" spans="3:8">
+      <c r="M174" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="175" spans="3:13">
       <c r="C175" s="20">
         <v>172</v>
       </c>
@@ -19126,7 +19388,10 @@
       </c>
       <c r="H175" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="M175" s="20">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -19140,11 +19405,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -19174,25 +19439,25 @@
       </c>
       <c r="E1" s="4">
         <f>ROUND(SUM(D3:D1032),0)</f>
-        <v>254200</v>
+        <v>236700</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="D2" s="7">
         <f>Orders!F2-Collection!H2</f>
-        <v>254200</v>
+        <v>236700</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(D3:D97)-D80</f>
-        <v>172200</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" spans="1:4">
+        <v>147700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -19222,7 +19487,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -19234,7 +19499,7 @@
       </c>
       <c r="D5" s="11">
         <f>Orders!F5-Collection!H5</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -19264,10 +19529,10 @@
       </c>
       <c r="D7" s="11">
         <f>Orders!F7-Collection!H7</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -19279,10 +19544,10 @@
       </c>
       <c r="D8" s="11">
         <f>Orders!F8-Collection!H8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -19309,7 +19574,7 @@
       </c>
       <c r="D10" s="11">
         <f>Orders!F10-Collection!H10</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -19339,7 +19604,7 @@
       </c>
       <c r="D12" s="11">
         <f>Orders!F12-Collection!H12</f>
-        <v>2800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19354,7 +19619,7 @@
       </c>
       <c r="D13" s="11">
         <f>Orders!F13-Collection!H13</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -19369,7 +19634,7 @@
       </c>
       <c r="D14" s="11">
         <f>Orders!F14-Collection!H14</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -19384,7 +19649,7 @@
       </c>
       <c r="D15" s="11">
         <f>Orders!F15-Collection!H15</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -19444,7 +19709,7 @@
       </c>
       <c r="D19" s="11">
         <f>Orders!F19-Collection!H19</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -19459,7 +19724,7 @@
       </c>
       <c r="D20" s="11">
         <f>Orders!F20-Collection!H20</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -19474,10 +19739,10 @@
       </c>
       <c r="D21" s="11">
         <f>Orders!F21-Collection!H21</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
@@ -19504,7 +19769,7 @@
       </c>
       <c r="D23" s="11">
         <f>Orders!F23-Collection!H23</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -19537,7 +19802,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -19549,7 +19814,7 @@
       </c>
       <c r="D26" s="11">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -19564,7 +19829,7 @@
       </c>
       <c r="D27" s="11">
         <f>Orders!F27-Collection!H27</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -19579,7 +19844,7 @@
       </c>
       <c r="D28" s="11">
         <f>Orders!F28-Collection!H28</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -19594,10 +19859,10 @@
       </c>
       <c r="D29" s="11">
         <f>Orders!F29-Collection!H29</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
@@ -19609,7 +19874,7 @@
       </c>
       <c r="D30" s="11">
         <f>Orders!F30-Collection!H30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -19624,7 +19889,7 @@
       </c>
       <c r="D31" s="11">
         <f>Orders!F31-Collection!H31</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -19642,7 +19907,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
@@ -19654,10 +19919,10 @@
       </c>
       <c r="D33" s="11">
         <f>Orders!F33-Collection!H33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>51</v>
       </c>
@@ -19687,7 +19952,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>51</v>
       </c>
@@ -19714,10 +19979,10 @@
       </c>
       <c r="D37" s="11">
         <f>Orders!F37-Collection!H37</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>51</v>
       </c>
@@ -19732,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>51</v>
       </c>
@@ -19759,7 +20024,7 @@
       </c>
       <c r="D40" s="11">
         <f>Orders!F40-Collection!H40</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -19789,7 +20054,7 @@
       </c>
       <c r="D42" s="11">
         <f>Orders!F42-Collection!H42</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -19819,10 +20084,10 @@
       </c>
       <c r="D44" s="11">
         <f>Orders!F44-Collection!H44</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>51</v>
       </c>
@@ -19834,10 +20099,10 @@
       </c>
       <c r="D45" s="11">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>64</v>
       </c>
@@ -19849,7 +20114,7 @@
       </c>
       <c r="D46" s="11">
         <f>Orders!F46-Collection!H46</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -19864,10 +20129,10 @@
       </c>
       <c r="D47" s="11">
         <f>Orders!F47-Collection!H47</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>64</v>
       </c>
@@ -19894,7 +20159,7 @@
       </c>
       <c r="D49" s="14">
         <f>Orders!F49-Collection!H49</f>
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -19909,10 +20174,10 @@
       </c>
       <c r="D50" s="11">
         <f>Orders!F50-Collection!H50</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
         <v>64</v>
       </c>
@@ -19924,10 +20189,10 @@
       </c>
       <c r="D51" s="11">
         <f>Orders!F51-Collection!H51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>64</v>
       </c>
@@ -19954,10 +20219,10 @@
       </c>
       <c r="D53" s="11">
         <f>Orders!F53-Collection!H53</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
         <v>64</v>
       </c>
@@ -19969,10 +20234,10 @@
       </c>
       <c r="D54" s="11">
         <f>Orders!F54-Collection!H54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>64</v>
       </c>
@@ -19999,10 +20264,10 @@
       </c>
       <c r="D56" s="11">
         <f>Orders!F56-Collection!H56</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>64</v>
       </c>
@@ -20032,7 +20297,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>77</v>
       </c>
@@ -20044,10 +20309,10 @@
       </c>
       <c r="D59" s="11">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>77</v>
       </c>
@@ -20062,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>77</v>
       </c>
@@ -20107,7 +20372,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>277</v>
       </c>
@@ -20122,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>88</v>
       </c>
@@ -20134,7 +20399,7 @@
       </c>
       <c r="D65" s="11">
         <f>Orders!F65-Collection!H65</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -20182,7 +20447,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>93</v>
       </c>
@@ -20197,7 +20462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>93</v>
       </c>
@@ -20239,10 +20504,10 @@
       </c>
       <c r="D72" s="11">
         <f>Orders!F72-Collection!H72</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="73" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>93</v>
       </c>
@@ -20254,10 +20519,10 @@
       </c>
       <c r="D73" s="11">
         <f>Orders!F73-Collection!H73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>93</v>
       </c>
@@ -20269,10 +20534,10 @@
       </c>
       <c r="D74" s="11">
         <f>Orders!F74-Collection!H74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>93</v>
       </c>
@@ -20287,7 +20552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>93</v>
       </c>
@@ -20329,10 +20594,10 @@
       </c>
       <c r="D78" s="11">
         <f>Orders!F78-Collection!H78</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>103</v>
       </c>
@@ -20344,10 +20609,10 @@
       </c>
       <c r="D79" s="11">
         <f>Orders!F79-Collection!H79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
@@ -20373,7 +20638,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10" t="s">
@@ -20384,7 +20649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>111</v>
       </c>
@@ -20399,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10" t="s">
@@ -20410,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>114</v>
       </c>
@@ -20422,7 +20687,7 @@
       </c>
       <c r="D85" s="11">
         <f>Orders!F85-Collection!H85</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -20440,7 +20705,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>114</v>
       </c>
@@ -20455,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>118</v>
       </c>
@@ -20470,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
@@ -20493,10 +20758,10 @@
       </c>
       <c r="D90" s="11">
         <f>Orders!F90-Collection!H90</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="91" hidden="1" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>93</v>
       </c>
@@ -20513,7 +20778,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B92" s="9">
         <v>7992363545</v>
@@ -20526,7 +20791,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10" t="s">
@@ -20549,10 +20814,10 @@
       </c>
       <c r="D94" s="11">
         <f>Orders!F94-Collection!H94</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
@@ -20563,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
@@ -20574,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:4">
+    <row r="97" spans="1:4">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="9" t="s">
@@ -20587,7 +20852,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="16" t="s">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -20596,10 +20861,10 @@
       </c>
       <c r="E98" s="8">
         <f>SUM(D99:D175)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="99" hidden="1" spans="1:4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="9" t="s">
         <v>132</v>
       </c>
@@ -20614,7 +20879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:4">
+    <row r="100" spans="1:4">
       <c r="A100" s="9" t="s">
         <v>132</v>
       </c>
@@ -20627,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:4">
+    <row r="101" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>132</v>
       </c>
@@ -20638,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
+    <row r="102" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>132</v>
       </c>
@@ -20651,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
+    <row r="103" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>132</v>
       </c>
@@ -20666,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>132</v>
       </c>
@@ -20681,7 +20946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:4">
+    <row r="105" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>132</v>
       </c>
@@ -20692,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>132</v>
       </c>
@@ -20717,10 +20982,10 @@
       </c>
       <c r="D107" s="11">
         <f>Orders!F107-Collection!H107</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="108" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>132</v>
       </c>
@@ -20733,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:4">
+    <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>132</v>
       </c>
@@ -20746,7 +21011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:4">
+    <row r="110" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>132</v>
       </c>
@@ -20759,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:4">
+    <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>132</v>
       </c>
@@ -20786,10 +21051,10 @@
       </c>
       <c r="D112" s="11">
         <f>Orders!F112-Collection!H112</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="113" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
         <v>132</v>
       </c>
@@ -20804,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:4">
+    <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>132</v>
       </c>
@@ -20817,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:4">
+    <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>132</v>
       </c>
@@ -20832,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:4">
+    <row r="116" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
@@ -20847,7 +21112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:4">
+    <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>132</v>
       </c>
@@ -20862,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:4">
+    <row r="118" spans="1:4">
       <c r="A118" s="9" t="s">
         <v>132</v>
       </c>
@@ -20874,10 +21139,10 @@
       </c>
       <c r="D118" s="11">
         <f>Orders!F118-Collection!H118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" hidden="1" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="9" t="s">
         <v>132</v>
       </c>
@@ -20892,7 +21157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:4">
+    <row r="120" spans="1:4">
       <c r="A120" s="9" t="s">
         <v>132</v>
       </c>
@@ -20905,7 +21170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:4">
+    <row r="121" spans="1:4">
       <c r="A121" s="9" t="s">
         <v>132</v>
       </c>
@@ -20932,10 +21197,10 @@
       </c>
       <c r="D122" s="11">
         <f>Orders!F122-Collection!H122</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="123" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="9" t="s">
         <v>132</v>
       </c>
@@ -20948,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:4">
+    <row r="124" spans="1:4">
       <c r="A124" s="9" t="s">
         <v>132</v>
       </c>
@@ -20963,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:4">
+    <row r="125" spans="1:4">
       <c r="A125" s="9" t="s">
         <v>132</v>
       </c>
@@ -20978,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:4">
+    <row r="126" spans="1:4">
       <c r="A126" s="9" t="s">
         <v>132</v>
       </c>
@@ -20991,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:4">
+    <row r="127" spans="1:4">
       <c r="A127" s="9" t="s">
         <v>132</v>
       </c>
@@ -21006,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:4">
+    <row r="128" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>132</v>
       </c>
@@ -21019,7 +21284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:4">
+    <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>82</v>
       </c>
@@ -21030,7 +21295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:4">
+    <row r="130" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>82</v>
       </c>
@@ -21045,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:4">
+    <row r="131" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>82</v>
       </c>
@@ -21060,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:4">
+    <row r="132" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>82</v>
       </c>
@@ -21071,7 +21336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:4">
+    <row r="133" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>82</v>
       </c>
@@ -21101,7 +21366,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:4">
+    <row r="135" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>82</v>
       </c>
@@ -21116,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:4">
+    <row r="136" spans="1:4">
       <c r="A136" s="9" t="s">
         <v>82</v>
       </c>
@@ -21129,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:4">
+    <row r="137" spans="1:4">
       <c r="A137" s="9" t="s">
         <v>82</v>
       </c>
@@ -21142,7 +21407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:4">
+    <row r="138" spans="1:4">
       <c r="A138" s="9" t="s">
         <v>82</v>
       </c>
@@ -21155,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:4">
+    <row r="139" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>82</v>
       </c>
@@ -21168,7 +21433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:4">
+    <row r="140" spans="1:4">
       <c r="A140" s="9" t="s">
         <v>82</v>
       </c>
@@ -21183,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:4">
+    <row r="141" spans="1:4">
       <c r="A141" s="9" t="s">
         <v>82</v>
       </c>
@@ -21213,7 +21478,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:4">
+    <row r="143" spans="1:4">
       <c r="A143" s="9" t="s">
         <v>82</v>
       </c>
@@ -21228,7 +21493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:4">
+    <row r="144" spans="1:4">
       <c r="A144" s="9" t="s">
         <v>82</v>
       </c>
@@ -21243,7 +21508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:4">
+    <row r="145" spans="1:4">
       <c r="A145" s="9" t="s">
         <v>82</v>
       </c>
@@ -21256,7 +21521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:4">
+    <row r="146" spans="1:4">
       <c r="A146" s="9" t="s">
         <v>191</v>
       </c>
@@ -21271,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:4">
+    <row r="147" spans="1:4">
       <c r="A147" s="9" t="s">
         <v>191</v>
       </c>
@@ -21284,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:4">
+    <row r="148" spans="1:4">
       <c r="A148" s="9" t="s">
         <v>191</v>
       </c>
@@ -21299,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:4">
+    <row r="149" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>191</v>
       </c>
@@ -21310,7 +21575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:4">
+    <row r="150" spans="1:4">
       <c r="A150" s="9" t="s">
         <v>191</v>
       </c>
@@ -21321,7 +21586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:4">
+    <row r="151" spans="1:4">
       <c r="A151" s="9" t="s">
         <v>195</v>
       </c>
@@ -21336,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:4">
+    <row r="152" spans="1:4">
       <c r="A152" s="9" t="s">
         <v>195</v>
       </c>
@@ -21359,10 +21624,10 @@
       </c>
       <c r="D153" s="11">
         <f>Orders!F153-Collection!H153</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="154" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="9" t="s">
         <v>195</v>
       </c>
@@ -21373,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:4">
+    <row r="155" spans="1:4">
       <c r="A155" s="9" t="s">
         <v>199</v>
       </c>
@@ -21386,7 +21651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:4">
+    <row r="156" spans="1:4">
       <c r="A156" s="9" t="s">
         <v>199</v>
       </c>
@@ -21397,7 +21662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:4">
+    <row r="157" spans="1:4">
       <c r="A157" s="9" t="s">
         <v>199</v>
       </c>
@@ -21408,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:4">
+    <row r="158" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>23</v>
       </c>
@@ -21419,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:4">
+    <row r="159" spans="1:4">
       <c r="A159" s="9"/>
       <c r="B159" s="15"/>
       <c r="C159" s="9"/>
@@ -21428,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:4">
+    <row r="160" spans="1:4">
       <c r="A160" s="9" t="s">
         <v>201</v>
       </c>
@@ -21458,7 +21723,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:4">
+    <row r="162" spans="1:4">
       <c r="A162" s="9"/>
       <c r="B162" s="15"/>
       <c r="C162" s="9"/>
@@ -21467,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:4">
+    <row r="163" spans="1:4">
       <c r="A163" s="9"/>
       <c r="B163" s="15"/>
       <c r="C163" s="9"/>
@@ -21476,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:4">
+    <row r="164" spans="1:4">
       <c r="A164" s="9"/>
       <c r="B164" s="15"/>
       <c r="C164" s="9"/>
@@ -21485,7 +21750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:4">
+    <row r="165" spans="1:4">
       <c r="A165" s="9"/>
       <c r="B165" s="15"/>
       <c r="C165" s="9"/>
@@ -21494,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:4">
+    <row r="166" spans="1:4">
       <c r="A166" s="9" t="s">
         <v>77</v>
       </c>
@@ -21507,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:4">
+    <row r="167" spans="1:4">
       <c r="A167" s="9" t="s">
         <v>206</v>
       </c>
@@ -21522,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:4">
+    <row r="168" spans="1:4">
       <c r="A168" s="9" t="s">
         <v>206</v>
       </c>
@@ -21537,7 +21802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:4">
+    <row r="169" spans="1:4">
       <c r="A169" s="9" t="s">
         <v>206</v>
       </c>
@@ -21549,10 +21814,10 @@
       </c>
       <c r="D169" s="11">
         <f>Orders!F169-Collection!H169</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" hidden="1" spans="1:4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="9" t="s">
         <v>206</v>
       </c>
@@ -21567,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:4">
+    <row r="171" spans="1:4">
       <c r="A171" s="9" t="s">
         <v>206</v>
       </c>
@@ -21582,7 +21847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:4">
+    <row r="172" spans="1:4">
       <c r="A172" s="9" t="s">
         <v>206</v>
       </c>
@@ -21597,7 +21862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:4">
+    <row r="173" spans="1:4">
       <c r="A173" s="9" t="s">
         <v>206</v>
       </c>
@@ -21612,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:4">
+    <row r="174" spans="1:4">
       <c r="A174" s="9" t="s">
         <v>215</v>
       </c>
@@ -21637,29 +21902,11 @@
       </c>
       <c r="D175" s="11">
         <f>Orders!F175-Collection!H175</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D175">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1000"/>
-        <filter val="1100"/>
-        <filter val="2000"/>
-        <filter val="2500"/>
-        <filter val="2800"/>
-        <filter val="3000"/>
-        <filter val="3800"/>
-        <filter val="4000"/>
-        <filter val="5000"/>
-        <filter val="6000"/>
-        <filter val="8000"/>
-        <filter val="20000"/>
-        <filter val="254200"/>
-        <filter val="0.1"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="1">

--- a/Recharge/July2021Recharge.xlsx
+++ b/Recharge/July2021Recharge.xlsx
@@ -71,6 +71,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="O118" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3120-Auto
+3120-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P141" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Manual
+2080-Manual</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K153" authorId="0">
       <text>
         <r>
@@ -120,8 +166,56 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="Q66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Chintu Elecronics dues Rs 6000 transfered to Pawan Electronics</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q97" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">Vijay:
+2000-Digital
+Chintu Elecronics dues Rs 6000 transfered to Pawan Electronics,
+So 2000-6000=-4000
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="319">
   <si>
     <t>S.No.</t>
   </si>
@@ -1005,7 +1099,7 @@
     <t>Sunil Kr./Gudiya</t>
   </si>
   <si>
-    <t>Sunil Kr./Gudiya/Ajit Kr</t>
+    <t>Sunil Kr./Gudiya/Ajeet Kr (Dakshin B)</t>
   </si>
   <si>
     <t>INDRJEET KUMAR</t>
@@ -1035,10 +1129,19 @@
     <t>Brajesh Kr./Archana/RANJAN</t>
   </si>
   <si>
-    <t>Munna</t>
-  </si>
-  <si>
-    <t>Satish Kr</t>
+    <t>Munna BOI</t>
+  </si>
+  <si>
+    <t>Raj Kr.</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>Satish Kr BOB</t>
+  </si>
+  <si>
+    <t>Mritunjay</t>
   </si>
   <si>
     <t>Binod</t>
@@ -1047,7 +1150,13 @@
     <t>Teknath</t>
   </si>
   <si>
+    <t>Mr Kanti</t>
+  </si>
+  <si>
     <t>Monu</t>
+  </si>
+  <si>
+    <t>Sonu(Indian Bank)</t>
   </si>
   <si>
     <t>Faiyaz Alam BOI</t>
@@ -1070,11 +1179,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1100,8 +1209,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,6 +1227,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,17 +1255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,26 +1293,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1208,29 +1325,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,6 +1341,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,6 +1427,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1348,7 +1463,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,7 +1523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,37 +1553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,13 +1589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,66 +1602,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,6 +1626,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,30 +1693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1623,13 +1732,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1641,134 +1750,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,9 +1925,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1830,6 +1936,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1873,15 +1982,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1890,10 +2002,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1903,10 +2015,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1915,10 +2027,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2257,11 +2369,11 @@
   <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="M97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="O119" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N97" sqref="N97"/>
+      <selection pane="bottomRight" activeCell="R122" sqref="R122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2272,159 +2384,159 @@
     <col min="5" max="5" width="51.1428571428571" style="20" customWidth="1"/>
     <col min="6" max="6" width="21.8571428571429" style="20" customWidth="1"/>
     <col min="7" max="7" width="11" style="20" customWidth="1"/>
-    <col min="8" max="8" width="20" style="33" customWidth="1"/>
+    <col min="8" max="8" width="20" style="34" customWidth="1"/>
     <col min="9" max="38" width="9.14285714285714" style="20"/>
     <col min="39" max="39" width="9.14285714285714" style="21"/>
     <col min="40" max="16384" width="9.14285714285714" style="20"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" spans="1:45">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41">
+      <c r="I1" s="42">
         <v>44378</v>
       </c>
-      <c r="J1" s="41">
+      <c r="J1" s="42">
         <v>44379</v>
       </c>
-      <c r="K1" s="41">
+      <c r="K1" s="42">
         <v>44380</v>
       </c>
-      <c r="L1" s="41">
+      <c r="L1" s="42">
         <v>44381</v>
       </c>
-      <c r="M1" s="41">
+      <c r="M1" s="42">
         <v>44382</v>
       </c>
-      <c r="N1" s="41">
+      <c r="N1" s="42">
         <v>44383</v>
       </c>
-      <c r="O1" s="41">
+      <c r="O1" s="42">
         <v>44384</v>
       </c>
-      <c r="P1" s="41">
+      <c r="P1" s="42">
         <v>44385</v>
       </c>
-      <c r="Q1" s="41">
+      <c r="Q1" s="42">
         <v>44386</v>
       </c>
-      <c r="R1" s="41">
+      <c r="R1" s="42">
         <v>44387</v>
       </c>
-      <c r="S1" s="41">
+      <c r="S1" s="42">
         <v>44388</v>
       </c>
-      <c r="T1" s="41">
+      <c r="T1" s="42">
         <v>44389</v>
       </c>
-      <c r="U1" s="41">
+      <c r="U1" s="42">
         <v>44390</v>
       </c>
-      <c r="V1" s="41">
+      <c r="V1" s="42">
         <v>44391</v>
       </c>
-      <c r="W1" s="41">
+      <c r="W1" s="42">
         <v>44392</v>
       </c>
-      <c r="X1" s="41">
+      <c r="X1" s="42">
         <v>44393</v>
       </c>
-      <c r="Y1" s="41">
+      <c r="Y1" s="42">
         <v>44394</v>
       </c>
-      <c r="Z1" s="41">
+      <c r="Z1" s="42">
         <v>44395</v>
       </c>
-      <c r="AA1" s="41">
+      <c r="AA1" s="42">
         <v>44396</v>
       </c>
-      <c r="AB1" s="41">
+      <c r="AB1" s="42">
         <v>44397</v>
       </c>
-      <c r="AC1" s="41">
+      <c r="AC1" s="42">
         <v>44398</v>
       </c>
-      <c r="AD1" s="41">
+      <c r="AD1" s="42">
         <v>44399</v>
       </c>
-      <c r="AE1" s="41">
+      <c r="AE1" s="42">
         <v>44400</v>
       </c>
-      <c r="AF1" s="41">
+      <c r="AF1" s="42">
         <v>44401</v>
       </c>
-      <c r="AG1" s="41">
+      <c r="AG1" s="42">
         <v>44402</v>
       </c>
-      <c r="AH1" s="41">
+      <c r="AH1" s="42">
         <v>44403</v>
       </c>
-      <c r="AI1" s="41">
+      <c r="AI1" s="42">
         <v>44404</v>
       </c>
-      <c r="AJ1" s="41">
+      <c r="AJ1" s="42">
         <v>44405</v>
       </c>
-      <c r="AK1" s="41">
+      <c r="AK1" s="42">
         <v>44406</v>
       </c>
-      <c r="AL1" s="41">
+      <c r="AL1" s="42">
         <v>44407</v>
       </c>
-      <c r="AM1" s="41">
+      <c r="AM1" s="42">
         <v>44408</v>
       </c>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
     </row>
     <row r="2" s="19" customFormat="1" spans="1:39">
       <c r="A2" s="23"/>
-      <c r="B2" s="35">
+      <c r="B2" s="36">
         <f>SUM(F3:F1032)</f>
-        <v>520700</v>
+        <v>755200</v>
       </c>
       <c r="D2" s="24">
         <f>SUM(G3:G1032)</f>
-        <v>314600</v>
+        <v>558480</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="37">
         <f>G2/1.04+H2</f>
-        <v>520700</v>
+        <v>755200</v>
       </c>
       <c r="G2" s="24">
         <f>SUM(I2:AM2)</f>
-        <v>314600</v>
-      </c>
-      <c r="H2" s="37">
+        <v>558480</v>
+      </c>
+      <c r="H2" s="38">
         <f>SUM(H3:H1032)</f>
         <v>218200</v>
       </c>
@@ -2454,23 +2566,23 @@
       </c>
       <c r="O2" s="29">
         <f t="shared" si="0"/>
-        <v>21840</v>
+        <v>68640</v>
       </c>
       <c r="P2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56680</v>
       </c>
       <c r="Q2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47320</v>
       </c>
       <c r="R2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69160</v>
       </c>
       <c r="S2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23920</v>
       </c>
       <c r="T2" s="29">
         <f t="shared" si="0"/>
@@ -2571,7 +2683,7 @@
         <f>SUM(I3:AM3)</f>
         <v>2080</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="39">
         <v>0</v>
       </c>
       <c r="I3" s="21"/>
@@ -2636,7 +2748,7 @@
         <f t="shared" ref="G4:G35" si="2">SUM(I4:AM4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="39">
         <v>2000</v>
       </c>
       <c r="I4" s="21"/>
@@ -2696,13 +2808,13 @@
       </c>
       <c r="F5" s="19">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="2"/>
-        <v>2080</v>
-      </c>
-      <c r="H5" s="38">
+        <v>4160</v>
+      </c>
+      <c r="H5" s="39">
         <v>1500</v>
       </c>
       <c r="I5" s="21"/>
@@ -2713,7 +2825,9 @@
         <v>2080</v>
       </c>
       <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="O5" s="21">
+        <v>2080</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -2764,13 +2878,13 @@
       </c>
       <c r="F6" s="19">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" si="2"/>
-        <v>6240</v>
-      </c>
-      <c r="H6" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H6" s="39">
         <v>0</v>
       </c>
       <c r="I6" s="21">
@@ -2788,7 +2902,9 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="R6" s="21">
+        <v>2080</v>
+      </c>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
@@ -2836,13 +2952,13 @@
       </c>
       <c r="F7" s="19">
         <f t="shared" si="1"/>
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" si="2"/>
-        <v>8320</v>
-      </c>
-      <c r="H7" s="38">
+        <v>14560</v>
+      </c>
+      <c r="H7" s="39">
         <v>14000</v>
       </c>
       <c r="I7" s="21">
@@ -2859,11 +2975,17 @@
       <c r="N7" s="21">
         <v>2080</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="21">
+        <v>2080</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="R7" s="21">
+        <v>2080</v>
+      </c>
+      <c r="S7" s="21">
+        <v>2080</v>
+      </c>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
@@ -2910,13 +3032,13 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="2"/>
-        <v>2080</v>
-      </c>
-      <c r="H8" s="38">
+        <v>4160</v>
+      </c>
+      <c r="H8" s="39">
         <v>2000</v>
       </c>
       <c r="I8" s="21"/>
@@ -2929,7 +3051,9 @@
         <v>2080</v>
       </c>
       <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="21">
+        <v>2080</v>
+      </c>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
@@ -2981,7 +3105,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="39">
         <v>0</v>
       </c>
       <c r="I9" s="21"/>
@@ -3041,13 +3165,13 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="2"/>
-        <v>10400</v>
-      </c>
-      <c r="H10" s="38">
+        <v>15600</v>
+      </c>
+      <c r="H10" s="39">
         <v>5000</v>
       </c>
       <c r="I10" s="21">
@@ -3062,7 +3186,9 @@
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="21">
+        <v>5200</v>
+      </c>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -3108,13 +3234,13 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="2"/>
-        <v>2080</v>
-      </c>
-      <c r="H11" s="38">
+        <v>4160</v>
+      </c>
+      <c r="H11" s="39">
         <v>2000</v>
       </c>
       <c r="I11" s="21">
@@ -3128,7 +3254,9 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
+      <c r="R11" s="21">
+        <v>2080</v>
+      </c>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -3179,7 +3307,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="39">
         <v>2800</v>
       </c>
       <c r="I12" s="21"/>
@@ -3236,13 +3364,13 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>5200</v>
-      </c>
-      <c r="H13" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H13" s="39">
         <v>0</v>
       </c>
       <c r="I13" s="21"/>
@@ -3253,7 +3381,9 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="O13" s="21">
+        <v>5200</v>
+      </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -3301,13 +3431,13 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>6240</v>
-      </c>
-      <c r="H14" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H14" s="39">
         <v>2000</v>
       </c>
       <c r="I14" s="21">
@@ -3323,9 +3453,13 @@
         <v>2080</v>
       </c>
       <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="P14" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
+      <c r="R14" s="21">
+        <v>2080</v>
+      </c>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
@@ -3373,13 +3507,13 @@
       </c>
       <c r="F15" s="19">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="2"/>
-        <v>2080</v>
-      </c>
-      <c r="H15" s="38">
+        <v>4160</v>
+      </c>
+      <c r="H15" s="39">
         <v>2000</v>
       </c>
       <c r="I15" s="21"/>
@@ -3391,7 +3525,9 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="P15" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -3444,13 +3580,13 @@
         <f t="shared" si="2"/>
         <v>1040</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="39">
         <v>3000</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="42">
+      <c r="L16" s="43">
         <v>1040</v>
       </c>
       <c r="M16" s="21"/>
@@ -3512,7 +3648,7 @@
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="39">
         <v>1000</v>
       </c>
       <c r="I17" s="21"/>
@@ -3563,7 +3699,7 @@
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="20">
@@ -3572,7 +3708,7 @@
       <c r="D18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="19">
@@ -3583,7 +3719,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="39">
         <v>2000</v>
       </c>
       <c r="I18" s="21"/>
@@ -3640,13 +3776,13 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="2"/>
-        <v>3120</v>
-      </c>
-      <c r="H19" s="38">
+        <v>6240</v>
+      </c>
+      <c r="H19" s="39">
         <v>3000</v>
       </c>
       <c r="I19" s="21"/>
@@ -3660,7 +3796,9 @@
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
+      <c r="R19" s="21">
+        <v>3120</v>
+      </c>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
@@ -3705,13 +3843,13 @@
       </c>
       <c r="F20" s="19">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="38">
+        <v>5200</v>
+      </c>
+      <c r="H20" s="39">
         <v>5000</v>
       </c>
       <c r="I20" s="21"/>
@@ -3721,7 +3859,9 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="P20" s="21">
+        <v>5200</v>
+      </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
@@ -3774,7 +3914,7 @@
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="39">
         <v>2000</v>
       </c>
       <c r="I21" s="21"/>
@@ -3833,13 +3973,13 @@
       </c>
       <c r="F22" s="19">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H22" s="39">
         <v>1000</v>
       </c>
       <c r="I22" s="21"/>
@@ -3851,7 +3991,9 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
+      <c r="R22" s="21">
+        <v>2080</v>
+      </c>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
@@ -3896,13 +4038,13 @@
       </c>
       <c r="F23" s="19">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="19">
         <f t="shared" si="2"/>
-        <v>5200</v>
-      </c>
-      <c r="H23" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H23" s="39">
         <v>0</v>
       </c>
       <c r="I23" s="21"/>
@@ -3916,7 +4058,9 @@
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
+      <c r="R23" s="21">
+        <v>5200</v>
+      </c>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
@@ -3961,13 +4105,13 @@
       </c>
       <c r="F24" s="19">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H24" s="39">
         <v>2000</v>
       </c>
       <c r="I24" s="21"/>
@@ -3979,7 +4123,9 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
+      <c r="R24" s="21">
+        <v>2080</v>
+      </c>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -4030,7 +4176,7 @@
         <f t="shared" si="2"/>
         <v>4160</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="39">
         <v>0</v>
       </c>
       <c r="I25" s="21"/>
@@ -4097,7 +4243,7 @@
         <f t="shared" si="2"/>
         <v>10400</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="39">
         <v>0</v>
       </c>
       <c r="I26" s="21">
@@ -4158,13 +4304,13 @@
       </c>
       <c r="F27" s="19">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>6240</v>
-      </c>
-      <c r="H27" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H27" s="39">
         <v>1000</v>
       </c>
       <c r="I27" s="21">
@@ -4180,7 +4326,9 @@
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="P27" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -4227,13 +4375,13 @@
       </c>
       <c r="F28" s="19">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G28" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H28" s="39">
         <v>2000</v>
       </c>
       <c r="I28" s="21"/>
@@ -4242,7 +4390,9 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="O28" s="21">
+        <v>2080</v>
+      </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
@@ -4296,7 +4446,7 @@
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="39">
         <v>0</v>
       </c>
       <c r="I29" s="21"/>
@@ -4361,7 +4511,7 @@
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="39">
         <v>0</v>
       </c>
       <c r="I30" s="21"/>
@@ -4426,7 +4576,7 @@
         <f t="shared" si="2"/>
         <v>4160</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="39">
         <v>0</v>
       </c>
       <c r="I31" s="21"/>
@@ -4487,13 +4637,13 @@
       </c>
       <c r="F32" s="19">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G32" s="19">
         <f t="shared" si="2"/>
-        <v>5200</v>
-      </c>
-      <c r="H32" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H32" s="39">
         <v>10000</v>
       </c>
       <c r="I32" s="21"/>
@@ -4506,7 +4656,9 @@
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="Q32" s="21">
+        <v>5200</v>
+      </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
@@ -4558,7 +4710,7 @@
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="39">
         <v>0</v>
       </c>
       <c r="I33" s="21"/>
@@ -4617,13 +4769,13 @@
       </c>
       <c r="F34" s="19">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G34" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H34" s="39">
         <v>2000</v>
       </c>
       <c r="I34" s="21"/>
@@ -4632,7 +4784,9 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
+      <c r="O34" s="21">
+        <v>2080</v>
+      </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
@@ -4686,7 +4840,7 @@
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="39">
         <v>0</v>
       </c>
       <c r="I35" s="21"/>
@@ -4751,7 +4905,7 @@
         <f t="shared" ref="G36:G67" si="4">SUM(I36:AM36)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="39">
         <v>0</v>
       </c>
       <c r="I36" s="21"/>
@@ -4808,13 +4962,13 @@
       </c>
       <c r="F37" s="19">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G37" s="19">
         <f t="shared" si="4"/>
-        <v>5200</v>
-      </c>
-      <c r="H37" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H37" s="39">
         <v>0</v>
       </c>
       <c r="I37" s="21"/>
@@ -4826,7 +4980,9 @@
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
+      <c r="P37" s="21">
+        <v>5200</v>
+      </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
@@ -4879,7 +5035,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="39">
         <v>0</v>
       </c>
       <c r="I38" s="21"/>
@@ -4936,13 +5092,13 @@
       </c>
       <c r="F39" s="19">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G39" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="38">
+        <v>5200</v>
+      </c>
+      <c r="H39" s="39">
         <v>5000</v>
       </c>
       <c r="I39" s="21"/>
@@ -4954,7 +5110,9 @@
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
+      <c r="R39" s="21">
+        <v>5200</v>
+      </c>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
@@ -5008,7 +5166,7 @@
         <f t="shared" si="4"/>
         <v>2080</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="39">
         <v>0</v>
       </c>
       <c r="I40" s="21">
@@ -5067,13 +5225,13 @@
       </c>
       <c r="F41" s="19">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G41" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H41" s="39">
         <v>2000</v>
       </c>
       <c r="I41" s="21"/>
@@ -5084,7 +5242,9 @@
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="Q41" s="21">
+        <v>2080</v>
+      </c>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
@@ -5130,13 +5290,13 @@
       </c>
       <c r="F42" s="19">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="19">
         <f t="shared" si="4"/>
-        <v>4160</v>
-      </c>
-      <c r="H42" s="38">
+        <v>6240</v>
+      </c>
+      <c r="H42" s="39">
         <v>0</v>
       </c>
       <c r="I42" s="21">
@@ -5149,7 +5309,9 @@
       </c>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
+      <c r="O42" s="21">
+        <v>2080</v>
+      </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
@@ -5197,13 +5359,13 @@
       </c>
       <c r="F43" s="19">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G43" s="19">
         <f t="shared" si="4"/>
-        <v>6240</v>
-      </c>
-      <c r="H43" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H43" s="39">
         <v>2000</v>
       </c>
       <c r="I43" s="21"/>
@@ -5219,9 +5381,13 @@
         <v>2080</v>
       </c>
       <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
+      <c r="P43" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
+      <c r="R43" s="21">
+        <v>2080</v>
+      </c>
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
@@ -5272,7 +5438,7 @@
         <f t="shared" si="4"/>
         <v>2080</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="39">
         <v>0</v>
       </c>
       <c r="I44" s="21"/>
@@ -5337,7 +5503,7 @@
         <f t="shared" si="4"/>
         <v>5200</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="39">
         <v>5000</v>
       </c>
       <c r="I45" s="21"/>
@@ -5396,13 +5562,13 @@
       </c>
       <c r="F46" s="19">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G46" s="19">
         <f t="shared" si="4"/>
-        <v>4160</v>
-      </c>
-      <c r="H46" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H46" s="39">
         <v>4000</v>
       </c>
       <c r="I46" s="21">
@@ -5415,8 +5581,12 @@
         <v>2080</v>
       </c>
       <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
+      <c r="O46" s="21">
+        <v>2080</v>
+      </c>
+      <c r="P46" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
@@ -5469,7 +5639,7 @@
         <f t="shared" si="4"/>
         <v>6240</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="39">
         <v>0</v>
       </c>
       <c r="I47" s="21">
@@ -5532,13 +5702,13 @@
       </c>
       <c r="F48" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H48" s="39">
         <v>0</v>
       </c>
       <c r="I48" s="21"/>
@@ -5548,7 +5718,9 @@
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
+      <c r="P48" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
@@ -5595,13 +5767,13 @@
       </c>
       <c r="F49" s="19">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="4"/>
-        <v>8320</v>
-      </c>
-      <c r="H49" s="38">
+        <v>12480</v>
+      </c>
+      <c r="H49" s="39">
         <v>2000</v>
       </c>
       <c r="I49" s="21"/>
@@ -5615,9 +5787,13 @@
       </c>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
+      <c r="P49" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
+      <c r="R49" s="21">
+        <v>2080</v>
+      </c>
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
@@ -5662,13 +5838,13 @@
       </c>
       <c r="F50" s="19">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G50" s="19">
         <f t="shared" si="4"/>
-        <v>4160</v>
-      </c>
-      <c r="H50" s="38">
+        <v>6240</v>
+      </c>
+      <c r="H50" s="39">
         <v>0</v>
       </c>
       <c r="I50" s="21"/>
@@ -5683,7 +5859,9 @@
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
+      <c r="Q50" s="21">
+        <v>2080</v>
+      </c>
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
@@ -5735,7 +5913,7 @@
         <f t="shared" si="4"/>
         <v>2080</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="39">
         <v>0</v>
       </c>
       <c r="I51" s="21"/>
@@ -5800,7 +5978,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="39">
         <v>0</v>
       </c>
       <c r="I52" s="21"/>
@@ -5857,13 +6035,13 @@
       </c>
       <c r="F53" s="19">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G53" s="19">
         <f t="shared" si="4"/>
-        <v>2080</v>
-      </c>
-      <c r="H53" s="38">
+        <v>6240</v>
+      </c>
+      <c r="H53" s="39">
         <v>6000</v>
       </c>
       <c r="I53" s="21"/>
@@ -5875,9 +6053,13 @@
       <c r="O53" s="21">
         <v>2080</v>
       </c>
-      <c r="P53" s="21"/>
+      <c r="P53" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
+      <c r="R53" s="21">
+        <v>2080</v>
+      </c>
       <c r="S53" s="21"/>
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
@@ -5922,13 +6104,13 @@
       </c>
       <c r="F54" s="19">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G54" s="19">
         <f t="shared" si="4"/>
-        <v>4160</v>
-      </c>
-      <c r="H54" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H54" s="39">
         <v>4000</v>
       </c>
       <c r="I54" s="21"/>
@@ -5943,9 +6125,13 @@
       <c r="N54" s="21"/>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
+      <c r="Q54" s="21">
+        <v>2080</v>
+      </c>
       <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
+      <c r="S54" s="21">
+        <v>2080</v>
+      </c>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
@@ -5981,22 +6167,22 @@
       <c r="A55" s="20">
         <v>53</v>
       </c>
-      <c r="B55" s="39"/>
+      <c r="B55" s="40"/>
       <c r="D55" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="41" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G55" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H55" s="39">
         <v>0</v>
       </c>
       <c r="I55" s="21"/>
@@ -6005,7 +6191,9 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
+      <c r="O55" s="21">
+        <v>2080</v>
+      </c>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
@@ -6045,11 +6233,11 @@
       <c r="A56" s="20">
         <v>54</v>
       </c>
-      <c r="B56" s="39"/>
+      <c r="B56" s="40"/>
       <c r="D56" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="41" t="s">
         <v>75</v>
       </c>
       <c r="F56" s="19">
@@ -6060,14 +6248,14 @@
         <f t="shared" si="4"/>
         <v>1040</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="39">
         <v>1000</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
-      <c r="M56" s="42">
+      <c r="M56" s="43">
         <v>1040</v>
       </c>
       <c r="N56" s="21"/>
@@ -6111,11 +6299,11 @@
       <c r="A57" s="20">
         <v>55</v>
       </c>
-      <c r="B57" s="39"/>
+      <c r="B57" s="40"/>
       <c r="D57" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="41" t="s">
         <v>76</v>
       </c>
       <c r="F57" s="19">
@@ -6126,7 +6314,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="39">
         <v>0</v>
       </c>
       <c r="I57" s="21"/>
@@ -6189,7 +6377,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H58" s="39">
         <v>2000</v>
       </c>
       <c r="I58" s="21"/>
@@ -6252,7 +6440,7 @@
         <f t="shared" si="4"/>
         <v>10400</v>
       </c>
-      <c r="H59" s="38">
+      <c r="H59" s="39">
         <v>5000</v>
       </c>
       <c r="I59" s="21">
@@ -6319,7 +6507,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H60" s="38">
+      <c r="H60" s="39">
         <v>0</v>
       </c>
       <c r="I60" s="21"/>
@@ -6376,13 +6564,13 @@
       </c>
       <c r="F61" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G61" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H61" s="39">
         <v>0</v>
       </c>
       <c r="I61" s="21"/>
@@ -6394,7 +6582,9 @@
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
+      <c r="R61" s="21">
+        <v>2080</v>
+      </c>
       <c r="S61" s="21"/>
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
@@ -6431,22 +6621,22 @@
       <c r="A62" s="20">
         <v>60</v>
       </c>
-      <c r="B62" s="39"/>
+      <c r="B62" s="40"/>
       <c r="D62" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="41" t="s">
         <v>83</v>
       </c>
       <c r="F62" s="19">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G62" s="19">
         <f t="shared" si="4"/>
-        <v>5200</v>
-      </c>
-      <c r="H62" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H62" s="39">
         <v>0</v>
       </c>
       <c r="I62" s="21"/>
@@ -6457,7 +6647,9 @@
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
+      <c r="O62" s="21">
+        <v>5200</v>
+      </c>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
@@ -6497,11 +6689,11 @@
       <c r="A63" s="20">
         <v>61</v>
       </c>
-      <c r="B63" s="39"/>
+      <c r="B63" s="40"/>
       <c r="D63" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="41" t="s">
         <v>84</v>
       </c>
       <c r="F63" s="19">
@@ -6512,7 +6704,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H63" s="38">
+      <c r="H63" s="39">
         <v>1100</v>
       </c>
       <c r="I63" s="21"/>
@@ -6581,7 +6773,7 @@
         <f t="shared" si="4"/>
         <v>5200</v>
       </c>
-      <c r="H64" s="38">
+      <c r="H64" s="39">
         <v>0</v>
       </c>
       <c r="I64" s="21"/>
@@ -6649,7 +6841,7 @@
         <f t="shared" si="4"/>
         <v>2080</v>
       </c>
-      <c r="H65" s="33">
+      <c r="H65" s="34">
         <v>2000</v>
       </c>
       <c r="I65" s="21"/>
@@ -6700,22 +6892,22 @@
       <c r="A66" s="20">
         <v>64</v>
       </c>
-      <c r="B66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="D66" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="41" t="s">
         <v>90</v>
       </c>
       <c r="F66" s="19">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G66" s="19">
         <f t="shared" si="4"/>
-        <v>2080</v>
-      </c>
-      <c r="H66" s="38">
+        <v>4160</v>
+      </c>
+      <c r="H66" s="39">
         <v>6000</v>
       </c>
       <c r="I66" s="21">
@@ -6730,7 +6922,9 @@
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
+      <c r="S66" s="21">
+        <v>2080</v>
+      </c>
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
@@ -6766,22 +6960,22 @@
       <c r="A67" s="20">
         <v>65</v>
       </c>
-      <c r="B67" s="39"/>
+      <c r="B67" s="40"/>
       <c r="D67" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>92</v>
       </c>
       <c r="F67" s="19">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G67" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H67" s="39">
         <v>1000</v>
       </c>
       <c r="I67" s="21"/>
@@ -6792,7 +6986,9 @@
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
+      <c r="Q67" s="21">
+        <v>2080</v>
+      </c>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
       <c r="T67" s="21"/>
@@ -6838,13 +7034,13 @@
       </c>
       <c r="F68" s="19">
         <f t="shared" ref="F68:F99" si="5">G68/1.04+H68</f>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G68" s="19">
         <f t="shared" ref="G68:G99" si="6">SUM(I68:AM68)</f>
-        <v>2080</v>
-      </c>
-      <c r="H68" s="38">
+        <v>4160</v>
+      </c>
+      <c r="H68" s="39">
         <v>6000</v>
       </c>
       <c r="I68" s="21"/>
@@ -6856,7 +7052,9 @@
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
+      <c r="P68" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
@@ -6909,7 +7107,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H69" s="38">
+      <c r="H69" s="39">
         <v>2000</v>
       </c>
       <c r="I69" s="21"/>
@@ -6972,7 +7170,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H70" s="38">
+      <c r="H70" s="39">
         <v>0</v>
       </c>
       <c r="I70" s="21"/>
@@ -7035,7 +7233,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H71" s="38">
+      <c r="H71" s="39">
         <v>2000</v>
       </c>
       <c r="I71" s="21"/>
@@ -7092,13 +7290,13 @@
       </c>
       <c r="F72" s="19">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G72" s="19">
         <f t="shared" si="6"/>
-        <v>10400</v>
-      </c>
-      <c r="H72" s="38">
+        <v>20800</v>
+      </c>
+      <c r="H72" s="39">
         <v>0</v>
       </c>
       <c r="I72" s="21"/>
@@ -7112,10 +7310,14 @@
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
       <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
+      <c r="P72" s="21">
+        <v>5200</v>
+      </c>
       <c r="Q72" s="21"/>
       <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
+      <c r="S72" s="21">
+        <v>5200</v>
+      </c>
       <c r="T72" s="21"/>
       <c r="U72" s="21"/>
       <c r="V72" s="21"/>
@@ -7159,13 +7361,13 @@
       </c>
       <c r="F73" s="19">
         <f t="shared" si="5"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G73" s="19">
         <f t="shared" si="6"/>
-        <v>6240</v>
-      </c>
-      <c r="H73" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H73" s="39">
         <v>0</v>
       </c>
       <c r="I73" s="21">
@@ -7181,9 +7383,13 @@
         <v>2080</v>
       </c>
       <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
+      <c r="P73" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
+      <c r="R73" s="21">
+        <v>2080</v>
+      </c>
       <c r="S73" s="21"/>
       <c r="T73" s="21"/>
       <c r="U73" s="21"/>
@@ -7220,11 +7426,11 @@
       <c r="A74" s="20">
         <v>72</v>
       </c>
-      <c r="B74" s="39"/>
+      <c r="B74" s="40"/>
       <c r="D74" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="41" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="19">
@@ -7235,7 +7441,7 @@
         <f t="shared" si="6"/>
         <v>2080</v>
       </c>
-      <c r="H74" s="38">
+      <c r="H74" s="39">
         <v>0</v>
       </c>
       <c r="I74" s="21"/>
@@ -7303,7 +7509,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H75" s="38">
+      <c r="H75" s="39">
         <v>0</v>
       </c>
       <c r="I75" s="21"/>
@@ -7352,11 +7558,11 @@
       <c r="A76" s="20">
         <v>74</v>
       </c>
-      <c r="B76" s="39"/>
+      <c r="B76" s="40"/>
       <c r="D76" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="41" t="s">
         <v>102</v>
       </c>
       <c r="F76" s="19">
@@ -7367,7 +7573,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H76" s="38">
+      <c r="H76" s="39">
         <v>2000</v>
       </c>
       <c r="I76" s="21"/>
@@ -7424,13 +7630,13 @@
       </c>
       <c r="F77" s="19">
         <f t="shared" si="5"/>
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="G77" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="38">
+        <v>1040</v>
+      </c>
+      <c r="H77" s="39">
         <v>3800</v>
       </c>
       <c r="I77" s="21"/>
@@ -7440,8 +7646,12 @@
       <c r="M77" s="21"/>
       <c r="N77" s="21"/>
       <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
+      <c r="P77" s="43">
+        <v>520</v>
+      </c>
+      <c r="Q77" s="43">
+        <v>520</v>
+      </c>
       <c r="R77" s="21"/>
       <c r="S77" s="21"/>
       <c r="T77" s="21"/>
@@ -7487,13 +7697,13 @@
       </c>
       <c r="F78" s="19">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G78" s="19">
         <f t="shared" si="6"/>
-        <v>5200</v>
-      </c>
-      <c r="H78" s="38">
+        <v>10400</v>
+      </c>
+      <c r="H78" s="39">
         <v>5000</v>
       </c>
       <c r="I78" s="21"/>
@@ -7507,7 +7717,9 @@
       <c r="O78" s="21"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
+      <c r="R78" s="21">
+        <v>5200</v>
+      </c>
       <c r="S78" s="21"/>
       <c r="T78" s="21"/>
       <c r="U78" s="21"/>
@@ -7558,7 +7770,7 @@
         <f t="shared" si="6"/>
         <v>2080</v>
       </c>
-      <c r="H79" s="38">
+      <c r="H79" s="39">
         <v>0</v>
       </c>
       <c r="I79" s="21"/>
@@ -7609,8 +7821,8 @@
       <c r="A80" s="20">
         <v>78</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="E80" s="40" t="s">
+      <c r="B80" s="40"/>
+      <c r="E80" s="41" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="19">
@@ -7621,7 +7833,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H80" s="38">
+      <c r="H80" s="39">
         <v>67000</v>
       </c>
       <c r="I80" s="21"/>
@@ -7670,22 +7882,22 @@
       <c r="A81" s="20">
         <v>79</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="40"/>
       <c r="D81" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="41" t="s">
         <v>109</v>
       </c>
       <c r="F81" s="19">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G81" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H81" s="39">
         <v>2000</v>
       </c>
       <c r="I81" s="21"/>
@@ -7694,7 +7906,9 @@
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
       <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
+      <c r="O81" s="21">
+        <v>2080</v>
+      </c>
       <c r="P81" s="21"/>
       <c r="Q81" s="21"/>
       <c r="R81" s="21"/>
@@ -7734,8 +7948,8 @@
       <c r="A82" s="20">
         <v>80</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="E82" s="40" t="s">
+      <c r="B82" s="40"/>
+      <c r="E82" s="41" t="s">
         <v>110</v>
       </c>
       <c r="F82" s="19">
@@ -7746,7 +7960,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="39">
         <v>0</v>
       </c>
       <c r="I82" s="21"/>
@@ -7795,11 +8009,11 @@
       <c r="A83" s="20">
         <v>81</v>
       </c>
-      <c r="B83" s="39"/>
+      <c r="B83" s="40"/>
       <c r="D83" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="41" t="s">
         <v>112</v>
       </c>
       <c r="F83" s="19">
@@ -7810,7 +8024,7 @@
         <f t="shared" si="6"/>
         <v>2080</v>
       </c>
-      <c r="H83" s="38">
+      <c r="H83" s="39">
         <v>0</v>
       </c>
       <c r="I83" s="21"/>
@@ -7861,8 +8075,8 @@
       <c r="A84" s="20">
         <v>82</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="E84" s="40" t="s">
+      <c r="B84" s="40"/>
+      <c r="E84" s="41" t="s">
         <v>113</v>
       </c>
       <c r="F84" s="19">
@@ -7873,7 +8087,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H84" s="38">
+      <c r="H84" s="39">
         <v>0</v>
       </c>
       <c r="I84" s="21"/>
@@ -7922,22 +8136,22 @@
       <c r="A85" s="20">
         <v>83</v>
       </c>
-      <c r="B85" s="39"/>
+      <c r="B85" s="40"/>
       <c r="D85" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="41" t="s">
         <v>115</v>
       </c>
       <c r="F85" s="19">
         <f t="shared" si="5"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G85" s="19">
         <f t="shared" si="6"/>
-        <v>10400</v>
-      </c>
-      <c r="H85" s="38">
+        <v>15600</v>
+      </c>
+      <c r="H85" s="39">
         <v>5000</v>
       </c>
       <c r="I85" s="21"/>
@@ -7954,7 +8168,9 @@
       <c r="P85" s="21"/>
       <c r="Q85" s="21"/>
       <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
+      <c r="S85" s="21">
+        <v>5200</v>
+      </c>
       <c r="T85" s="21"/>
       <c r="U85" s="21"/>
       <c r="V85" s="21"/>
@@ -8004,7 +8220,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H86" s="38">
+      <c r="H86" s="39">
         <v>5000</v>
       </c>
       <c r="I86" s="21"/>
@@ -8053,14 +8269,14 @@
       <c r="A87" s="20">
         <v>85</v>
       </c>
-      <c r="B87" s="39"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="20">
         <v>683879115</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="41" t="s">
         <v>117</v>
       </c>
       <c r="F87" s="19">
@@ -8071,7 +8287,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H87" s="38">
+      <c r="H87" s="39">
         <v>0</v>
       </c>
       <c r="I87" s="21"/>
@@ -8120,22 +8336,22 @@
       <c r="A88" s="20">
         <v>86</v>
       </c>
-      <c r="B88" s="39"/>
+      <c r="B88" s="40"/>
       <c r="D88" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="40" t="s">
+      <c r="E88" s="41" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G88" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="38">
+        <v>2080</v>
+      </c>
+      <c r="H88" s="39">
         <v>0</v>
       </c>
       <c r="I88" s="21"/>
@@ -8145,7 +8361,9 @@
       <c r="M88" s="21"/>
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
+      <c r="P88" s="21">
+        <v>2080</v>
+      </c>
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
@@ -8184,8 +8402,8 @@
       <c r="A89" s="20">
         <v>87</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="E89" s="40" t="s">
+      <c r="B89" s="40"/>
+      <c r="E89" s="41" t="s">
         <v>120</v>
       </c>
       <c r="F89" s="19">
@@ -8196,7 +8414,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H89" s="38">
+      <c r="H89" s="39">
         <v>0</v>
       </c>
       <c r="I89" s="21"/>
@@ -8245,19 +8463,19 @@
       <c r="A90" s="20">
         <v>88</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="E90" s="40" t="s">
+      <c r="B90" s="40"/>
+      <c r="E90" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F90" s="19">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G90" s="19">
         <f t="shared" si="6"/>
-        <v>2080</v>
-      </c>
-      <c r="H90" s="38">
+        <v>4160</v>
+      </c>
+      <c r="H90" s="39">
         <v>0</v>
       </c>
       <c r="I90" s="21"/>
@@ -8271,7 +8489,9 @@
       <c r="O90" s="21"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
+      <c r="R90" s="21">
+        <v>2080</v>
+      </c>
       <c r="S90" s="21"/>
       <c r="T90" s="21"/>
       <c r="U90" s="21"/>
@@ -8308,19 +8528,19 @@
       <c r="A91" s="20">
         <v>89</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="E91" s="40" t="s">
+      <c r="B91" s="40"/>
+      <c r="E91" s="41" t="s">
         <v>122</v>
       </c>
       <c r="F91" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G91" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="38">
+        <v>1040</v>
+      </c>
+      <c r="H91" s="39">
         <v>0</v>
       </c>
       <c r="I91" s="21"/>
@@ -8330,7 +8550,9 @@
       <c r="M91" s="21"/>
       <c r="N91" s="21"/>
       <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
+      <c r="P91" s="43">
+        <v>1040</v>
+      </c>
       <c r="Q91" s="21"/>
       <c r="R91" s="21"/>
       <c r="S91" s="21"/>
@@ -8380,7 +8602,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H92" s="38">
+      <c r="H92" s="39">
         <v>2000</v>
       </c>
       <c r="I92" s="21"/>
@@ -8440,7 +8662,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H93" s="38">
+      <c r="H93" s="39">
         <v>0</v>
       </c>
       <c r="I93" s="21"/>
@@ -8503,7 +8725,7 @@
         <f t="shared" si="6"/>
         <v>1040</v>
       </c>
-      <c r="H94" s="38">
+      <c r="H94" s="39">
         <v>1000</v>
       </c>
       <c r="I94" s="21"/>
@@ -8565,7 +8787,7 @@
         <f t="shared" ref="G95:G126" si="7">SUM(I95:AM95)</f>
         <v>0</v>
       </c>
-      <c r="H95" s="38">
+      <c r="H95" s="39">
         <v>0</v>
       </c>
       <c r="I95" s="21"/>
@@ -8625,7 +8847,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H96" s="38">
+      <c r="H96" s="39">
         <v>0</v>
       </c>
       <c r="I96" s="21"/>
@@ -8679,13 +8901,13 @@
       </c>
       <c r="F97" s="19">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="G97" s="19">
         <f t="shared" si="7"/>
-        <v>1040</v>
-      </c>
-      <c r="H97" s="38">
+        <v>6240</v>
+      </c>
+      <c r="H97" s="39">
         <v>0</v>
       </c>
       <c r="I97" s="21"/>
@@ -8693,14 +8915,20 @@
       <c r="K97" s="21"/>
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
-      <c r="N97" s="42">
+      <c r="N97" s="43">
         <v>1040</v>
       </c>
-      <c r="O97" s="21"/>
+      <c r="O97" s="43">
+        <v>1040</v>
+      </c>
       <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
+      <c r="Q97" s="21">
+        <v>2080</v>
+      </c>
       <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
+      <c r="S97" s="21">
+        <v>2080</v>
+      </c>
       <c r="T97" s="21"/>
       <c r="U97" s="21"/>
       <c r="V97" s="21"/>
@@ -8746,7 +8974,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H98" s="38">
+      <c r="H98" s="39">
         <v>0</v>
       </c>
       <c r="I98" s="21"/>
@@ -8812,12 +9040,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H99" s="38">
+      <c r="H99" s="39">
         <v>0</v>
       </c>
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
-      <c r="K99" s="44"/>
+      <c r="K99" s="45"/>
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
       <c r="N99" s="21"/>
@@ -8875,12 +9103,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H100" s="38">
+      <c r="H100" s="39">
         <v>0</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
-      <c r="K100" s="44"/>
+      <c r="K100" s="45"/>
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
       <c r="N100" s="21"/>
@@ -8935,12 +9163,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H101" s="38">
+      <c r="H101" s="39">
         <v>0</v>
       </c>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
-      <c r="K101" s="44"/>
+      <c r="K101" s="45"/>
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
@@ -8998,12 +9226,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H102" s="38">
+      <c r="H102" s="39">
         <v>0</v>
       </c>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
-      <c r="K102" s="44"/>
+      <c r="K102" s="45"/>
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
       <c r="N102" s="21"/>
@@ -9064,12 +9292,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H103" s="38">
+      <c r="H103" s="39">
         <v>0</v>
       </c>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
-      <c r="K103" s="44"/>
+      <c r="K103" s="45"/>
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
       <c r="N103" s="21"/>
@@ -9130,12 +9358,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H104" s="38">
+      <c r="H104" s="39">
         <v>0</v>
       </c>
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
-      <c r="K104" s="44"/>
+      <c r="K104" s="45"/>
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
       <c r="N104" s="21"/>
@@ -9190,12 +9418,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H105" s="38">
+      <c r="H105" s="39">
         <v>0</v>
       </c>
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
-      <c r="K105" s="44"/>
+      <c r="K105" s="45"/>
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
       <c r="N105" s="21"/>
@@ -9247,23 +9475,25 @@
       </c>
       <c r="F106" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G106" s="19">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="38">
+        <v>1040</v>
+      </c>
+      <c r="H106" s="39">
         <v>0</v>
       </c>
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
-      <c r="K106" s="44"/>
+      <c r="K106" s="45"/>
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
       <c r="N106" s="21"/>
       <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
+      <c r="P106" s="43">
+        <v>1040</v>
+      </c>
       <c r="Q106" s="21"/>
       <c r="R106" s="21"/>
       <c r="S106" s="21"/>
@@ -9313,21 +9543,21 @@
       </c>
       <c r="F107" s="19">
         <f t="shared" si="8"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G107" s="19">
         <f t="shared" si="7"/>
-        <v>5200</v>
-      </c>
-      <c r="H107" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H107" s="39">
         <v>0</v>
       </c>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
-      <c r="K107" s="45">
+      <c r="K107" s="46">
         <v>1040</v>
       </c>
-      <c r="L107" s="42">
+      <c r="L107" s="43">
         <v>1040</v>
       </c>
       <c r="M107" s="21"/>
@@ -9337,7 +9567,9 @@
       <c r="O107" s="21"/>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
-      <c r="R107" s="21"/>
+      <c r="R107" s="21">
+        <v>3120</v>
+      </c>
       <c r="S107" s="21"/>
       <c r="T107" s="21"/>
       <c r="U107" s="21"/>
@@ -9388,12 +9620,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H108" s="38">
+      <c r="H108" s="39">
         <v>0</v>
       </c>
       <c r="I108" s="21"/>
       <c r="J108" s="21"/>
-      <c r="K108" s="44"/>
+      <c r="K108" s="45"/>
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
       <c r="N108" s="21"/>
@@ -9451,12 +9683,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H109" s="38">
+      <c r="H109" s="39">
         <v>0</v>
       </c>
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
-      <c r="K109" s="44"/>
+      <c r="K109" s="45"/>
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
       <c r="N109" s="21"/>
@@ -9514,12 +9746,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H110" s="38">
+      <c r="H110" s="39">
         <v>0</v>
       </c>
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
-      <c r="K110" s="44"/>
+      <c r="K110" s="45"/>
       <c r="L110" s="21"/>
       <c r="M110" s="21"/>
       <c r="N110" s="21"/>
@@ -9580,14 +9812,14 @@
         <f t="shared" si="7"/>
         <v>1560</v>
       </c>
-      <c r="H111" s="38">
+      <c r="H111" s="39">
         <v>0</v>
       </c>
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
-      <c r="K111" s="44"/>
+      <c r="K111" s="45"/>
       <c r="L111" s="21"/>
-      <c r="M111" s="42">
+      <c r="M111" s="43">
         <v>1560</v>
       </c>
       <c r="N111" s="21"/>
@@ -9642,22 +9874,22 @@
       </c>
       <c r="F112" s="19">
         <f t="shared" si="8"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G112" s="19">
         <f t="shared" si="7"/>
-        <v>6240</v>
-      </c>
-      <c r="H112" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H112" s="39">
         <v>0</v>
       </c>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
-      <c r="K112" s="45">
+      <c r="K112" s="46">
         <v>1040</v>
       </c>
       <c r="L112" s="21"/>
-      <c r="M112" s="42">
+      <c r="M112" s="43">
         <v>3120</v>
       </c>
       <c r="N112" s="21"/>
@@ -9666,7 +9898,9 @@
       </c>
       <c r="P112" s="21"/>
       <c r="Q112" s="21"/>
-      <c r="R112" s="21"/>
+      <c r="R112" s="21">
+        <v>2080</v>
+      </c>
       <c r="S112" s="21"/>
       <c r="T112" s="21"/>
       <c r="U112" s="21"/>
@@ -9714,18 +9948,18 @@
       </c>
       <c r="F113" s="19">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G113" s="19">
         <f t="shared" si="7"/>
-        <v>4160</v>
-      </c>
-      <c r="H113" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H113" s="39">
         <v>0</v>
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
-      <c r="K113" s="42">
+      <c r="K113" s="43">
         <v>2080</v>
       </c>
       <c r="L113" s="21"/>
@@ -9735,9 +9969,13 @@
       <c r="N113" s="21"/>
       <c r="O113" s="21"/>
       <c r="P113" s="21"/>
-      <c r="Q113" s="21"/>
+      <c r="Q113" s="21">
+        <v>2080</v>
+      </c>
       <c r="R113" s="21"/>
-      <c r="S113" s="21"/>
+      <c r="S113" s="21">
+        <v>2080</v>
+      </c>
       <c r="T113" s="21"/>
       <c r="U113" s="21"/>
       <c r="V113" s="21"/>
@@ -9787,7 +10025,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H114" s="38">
+      <c r="H114" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9812,7 +10050,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H115" s="38">
+      <c r="H115" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9837,7 +10075,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H116" s="38">
+      <c r="H116" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9862,11 +10100,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H117" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="H117" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="20">
         <v>115</v>
       </c>
@@ -9881,19 +10119,25 @@
       </c>
       <c r="F118" s="19">
         <f t="shared" si="8"/>
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="G118" s="19">
         <f t="shared" si="7"/>
+        <v>15600</v>
+      </c>
+      <c r="H118" s="39">
+        <v>0</v>
+      </c>
+      <c r="N118" s="47">
+        <v>3120</v>
+      </c>
+      <c r="O118" s="20">
         <v>6240</v>
       </c>
-      <c r="H118" s="38">
-        <v>0</v>
-      </c>
-      <c r="N118" s="46">
+      <c r="Q118" s="20">
         <v>3120</v>
       </c>
-      <c r="O118" s="20">
+      <c r="R118" s="20">
         <v>3120</v>
       </c>
     </row>
@@ -9918,7 +10162,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H119" s="38">
+      <c r="H119" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9940,7 +10184,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H120" s="38">
+      <c r="H120" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9965,14 +10209,14 @@
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="H121" s="38">
-        <v>0</v>
-      </c>
-      <c r="M121" s="46">
+      <c r="H121" s="39">
+        <v>0</v>
+      </c>
+      <c r="M121" s="47">
         <v>1040</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:18">
       <c r="A122" s="20">
         <v>119</v>
       </c>
@@ -9987,19 +10231,28 @@
       </c>
       <c r="F122" s="19">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G122" s="19">
         <f t="shared" si="7"/>
-        <v>4160</v>
-      </c>
-      <c r="H122" s="38">
-        <v>0</v>
-      </c>
-      <c r="L122" s="46">
+        <v>10400</v>
+      </c>
+      <c r="H122" s="39">
+        <v>0</v>
+      </c>
+      <c r="L122" s="47">
         <v>2080</v>
       </c>
-      <c r="M122" s="46">
+      <c r="M122" s="47">
+        <v>2080</v>
+      </c>
+      <c r="O122" s="47">
+        <v>2080</v>
+      </c>
+      <c r="Q122" s="47">
+        <v>2080</v>
+      </c>
+      <c r="R122" s="47">
         <v>2080</v>
       </c>
     </row>
@@ -10021,7 +10274,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H123" s="38">
+      <c r="H123" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10040,18 +10293,18 @@
       </c>
       <c r="F124" s="19">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G124" s="19">
         <f t="shared" si="7"/>
-        <v>3120</v>
-      </c>
-      <c r="H124" s="38">
+        <v>6240</v>
+      </c>
+      <c r="H124" s="39">
         <v>0</v>
       </c>
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
-      <c r="K124" s="45">
+      <c r="K124" s="46">
         <v>2080</v>
       </c>
       <c r="L124" s="21"/>
@@ -10059,10 +10312,16 @@
       <c r="N124" s="21">
         <v>1040</v>
       </c>
-      <c r="O124" s="21"/>
+      <c r="O124" s="21">
+        <v>1040</v>
+      </c>
       <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
+      <c r="Q124" s="21">
+        <v>1040</v>
+      </c>
+      <c r="R124" s="21">
+        <v>1040</v>
+      </c>
       <c r="S124" s="21"/>
       <c r="T124" s="21"/>
       <c r="U124" s="21"/>
@@ -10116,7 +10375,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H125" s="38">
+      <c r="H125" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10138,7 +10397,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H126" s="38">
+      <c r="H126" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10163,7 +10422,7 @@
         <f t="shared" ref="G127:G158" si="9">SUM(I127:AM127)</f>
         <v>0</v>
       </c>
-      <c r="H127" s="38">
+      <c r="H127" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10185,7 +10444,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H128" s="38">
+      <c r="H128" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10204,7 +10463,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H129" s="38">
+      <c r="H129" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10229,15 +10488,15 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H130" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="H130" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="20">
         <v>128</v>
       </c>
-      <c r="C131" s="47" t="s">
+      <c r="C131" s="48" t="s">
         <v>177</v>
       </c>
       <c r="D131" s="20" t="s">
@@ -10248,17 +10507,20 @@
       </c>
       <c r="F131" s="19">
         <f t="shared" si="10"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G131" s="19">
         <f t="shared" si="9"/>
+        <v>3120</v>
+      </c>
+      <c r="H131" s="39">
+        <v>0</v>
+      </c>
+      <c r="M131" s="47">
         <v>1040</v>
       </c>
-      <c r="H131" s="38">
-        <v>0</v>
-      </c>
-      <c r="M131" s="46">
-        <v>1040</v>
+      <c r="R131" s="47">
+        <v>2080</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -10276,7 +10538,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H132" s="38">
+      <c r="H132" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10298,7 +10560,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H133" s="38">
+      <c r="H133" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10314,18 +10576,18 @@
       </c>
       <c r="F134" s="19">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G134" s="19">
         <f t="shared" si="9"/>
-        <v>3120</v>
-      </c>
-      <c r="H134" s="38">
+        <v>7280</v>
+      </c>
+      <c r="H134" s="39">
         <v>0</v>
       </c>
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
-      <c r="K134" s="45">
+      <c r="K134" s="46">
         <v>1040</v>
       </c>
       <c r="L134" s="21">
@@ -10334,8 +10596,12 @@
       <c r="M134" s="21"/>
       <c r="N134" s="21"/>
       <c r="O134" s="21"/>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
+      <c r="P134" s="21">
+        <v>2080</v>
+      </c>
+      <c r="Q134" s="21">
+        <v>2080</v>
+      </c>
       <c r="R134" s="21"/>
       <c r="S134" s="21"/>
       <c r="T134" s="21"/>
@@ -10376,14 +10642,14 @@
         <f t="shared" si="9"/>
         <v>3120</v>
       </c>
-      <c r="H135" s="38">
-        <v>0</v>
-      </c>
-      <c r="M135" s="46">
+      <c r="H135" s="39">
+        <v>0</v>
+      </c>
+      <c r="M135" s="47">
         <v>3120</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:17">
       <c r="A136" s="20">
         <v>133</v>
       </c>
@@ -10395,14 +10661,20 @@
       </c>
       <c r="F136" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G136" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H136" s="38">
-        <v>0</v>
+        <v>3120</v>
+      </c>
+      <c r="H136" s="39">
+        <v>0</v>
+      </c>
+      <c r="O136" s="47">
+        <v>2080</v>
+      </c>
+      <c r="Q136" s="20">
+        <v>1040</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -10420,11 +10692,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H137" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="H137" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="20">
         <v>135</v>
       </c>
@@ -10436,14 +10708,20 @@
       </c>
       <c r="F138" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G138" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H138" s="38">
-        <v>0</v>
+        <v>2080</v>
+      </c>
+      <c r="H138" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="47">
+        <v>1040</v>
+      </c>
+      <c r="R138" s="20">
+        <v>1040</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -10464,7 +10742,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H139" s="38">
+      <c r="H139" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10486,11 +10764,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H140" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="H140" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="20">
         <v>138</v>
       </c>
@@ -10502,14 +10780,20 @@
       </c>
       <c r="F141" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="G141" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H141" s="38">
-        <v>0</v>
+        <v>7280</v>
+      </c>
+      <c r="H141" s="39">
+        <v>0</v>
+      </c>
+      <c r="P141" s="47">
+        <v>4160</v>
+      </c>
+      <c r="Q141" s="47">
+        <v>3120</v>
       </c>
     </row>
     <row r="142" spans="1:50">
@@ -10524,32 +10808,40 @@
       </c>
       <c r="F142" s="19">
         <f t="shared" si="10"/>
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="G142" s="19">
         <f t="shared" si="9"/>
-        <v>9360</v>
-      </c>
-      <c r="H142" s="38">
+        <v>21840</v>
+      </c>
+      <c r="H142" s="39">
         <v>0</v>
       </c>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
-      <c r="K142" s="45">
+      <c r="K142" s="46">
         <v>3120</v>
       </c>
       <c r="L142" s="21"/>
-      <c r="M142" s="42">
+      <c r="M142" s="43">
         <v>3120</v>
       </c>
       <c r="N142" s="21">
         <v>3120</v>
       </c>
-      <c r="O142" s="21"/>
-      <c r="P142" s="21"/>
-      <c r="Q142" s="21"/>
+      <c r="O142" s="21">
+        <v>3120</v>
+      </c>
+      <c r="P142" s="21">
+        <v>3120</v>
+      </c>
+      <c r="Q142" s="21">
+        <v>3120</v>
+      </c>
       <c r="R142" s="21"/>
-      <c r="S142" s="21"/>
+      <c r="S142" s="21">
+        <v>3120</v>
+      </c>
       <c r="T142" s="21"/>
       <c r="U142" s="21"/>
       <c r="V142" s="21"/>
@@ -10599,7 +10891,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H143" s="38">
+      <c r="H143" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10621,7 +10913,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H144" s="38">
+      <c r="H144" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10643,7 +10935,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H145" s="38">
+      <c r="H145" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10665,7 +10957,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H146" s="38">
+      <c r="H146" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10687,11 +10979,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H147" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="H147" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="20">
         <v>145</v>
       </c>
@@ -10703,14 +10995,17 @@
       </c>
       <c r="F148" s="19">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G148" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H148" s="38">
-        <v>0</v>
+        <v>2080</v>
+      </c>
+      <c r="H148" s="39">
+        <v>0</v>
+      </c>
+      <c r="R148" s="47">
+        <v>2080</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -10728,7 +11023,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H149" s="38">
+      <c r="H149" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10747,7 +11042,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H150" s="38">
+      <c r="H150" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10769,10 +11064,10 @@
         <f t="shared" si="9"/>
         <v>2080</v>
       </c>
-      <c r="H151" s="38">
-        <v>0</v>
-      </c>
-      <c r="K151" s="46">
+      <c r="H151" s="39">
+        <v>0</v>
+      </c>
+      <c r="K151" s="47">
         <v>2080</v>
       </c>
     </row>
@@ -10791,7 +11086,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H152" s="38">
+      <c r="H152" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10799,7 +11094,7 @@
       <c r="A153" s="20">
         <v>150</v>
       </c>
-      <c r="C153" s="47" t="s">
+      <c r="C153" s="48" t="s">
         <v>197</v>
       </c>
       <c r="D153" s="20" t="s">
@@ -10810,17 +11105,17 @@
       </c>
       <c r="F153" s="19">
         <f t="shared" si="10"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G153" s="19">
         <f t="shared" si="9"/>
-        <v>5200</v>
-      </c>
-      <c r="H153" s="38">
+        <v>8320</v>
+      </c>
+      <c r="H153" s="39">
         <v>0</v>
       </c>
       <c r="I153" s="21"/>
-      <c r="K153" s="42">
+      <c r="K153" s="43">
         <v>2080</v>
       </c>
       <c r="L153" s="21">
@@ -10830,7 +11125,9 @@
       <c r="N153" s="21"/>
       <c r="O153" s="21"/>
       <c r="P153" s="21"/>
-      <c r="Q153" s="21"/>
+      <c r="Q153" s="21">
+        <v>3120</v>
+      </c>
       <c r="R153" s="21"/>
       <c r="S153" s="21"/>
       <c r="T153" s="21"/>
@@ -10879,7 +11176,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H154" s="38">
+      <c r="H154" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10901,7 +11198,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H155" s="38">
+      <c r="H155" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10920,7 +11217,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H156" s="38">
+      <c r="H156" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10939,7 +11236,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H157" s="38">
+      <c r="H157" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10958,7 +11255,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H158" s="38">
+      <c r="H158" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10974,11 +11271,11 @@
         <f t="shared" ref="G159:G175" si="11">SUM(I159:AM159)</f>
         <v>0</v>
       </c>
-      <c r="H159" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="H159" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="20">
         <v>157</v>
       </c>
@@ -10990,17 +11287,20 @@
       </c>
       <c r="F160" s="19">
         <f t="shared" ref="F160:F175" si="12">G160/1.04+H160</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G160" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H160" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>2080</v>
+      </c>
+      <c r="H160" s="39">
+        <v>0</v>
+      </c>
+      <c r="P160" s="20">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="20">
         <v>158</v>
       </c>
@@ -11012,22 +11312,25 @@
       </c>
       <c r="F161" s="19">
         <f t="shared" si="12"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G161" s="19">
         <f t="shared" si="11"/>
-        <v>5200</v>
-      </c>
-      <c r="H161" s="38">
-        <v>0</v>
-      </c>
-      <c r="K161" s="46">
+        <v>7280</v>
+      </c>
+      <c r="H161" s="39">
+        <v>0</v>
+      </c>
+      <c r="K161" s="47">
         <v>1040</v>
       </c>
       <c r="L161" s="20">
         <v>2080</v>
       </c>
       <c r="N161" s="20">
+        <v>2080</v>
+      </c>
+      <c r="R161" s="20">
         <v>2080</v>
       </c>
     </row>
@@ -11043,7 +11346,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H162" s="38">
+      <c r="H162" s="39">
         <v>0</v>
       </c>
     </row>
@@ -11059,7 +11362,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H163" s="38">
+      <c r="H163" s="39">
         <v>0</v>
       </c>
     </row>
@@ -11075,7 +11378,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H164" s="38">
+      <c r="H164" s="39">
         <v>0</v>
       </c>
     </row>
@@ -11091,7 +11394,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H165" s="38">
+      <c r="H165" s="39">
         <v>0</v>
       </c>
     </row>
@@ -11113,11 +11416,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H166" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="H166" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="20">
         <v>164</v>
       </c>
@@ -11129,16 +11432,16 @@
       </c>
       <c r="F167" s="19">
         <f t="shared" si="12"/>
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="G167" s="19">
         <f t="shared" si="11"/>
-        <v>12480</v>
-      </c>
-      <c r="H167" s="38">
-        <v>0</v>
-      </c>
-      <c r="K167" s="46">
+        <v>22880</v>
+      </c>
+      <c r="H167" s="39">
+        <v>0</v>
+      </c>
+      <c r="K167" s="47">
         <v>2080</v>
       </c>
       <c r="L167" s="20">
@@ -11147,8 +11450,14 @@
       <c r="M167" s="20">
         <v>5200</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="O167" s="20">
+        <v>5200</v>
+      </c>
+      <c r="R167" s="20">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="20">
         <v>165</v>
       </c>
@@ -11160,14 +11469,17 @@
       </c>
       <c r="F168" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G168" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H168" s="38">
-        <v>0</v>
+        <v>2080</v>
+      </c>
+      <c r="H168" s="39">
+        <v>0</v>
+      </c>
+      <c r="P168" s="20">
+        <v>2080</v>
       </c>
     </row>
     <row r="169" spans="1:50">
@@ -11188,17 +11500,17 @@
         <f t="shared" si="11"/>
         <v>9360</v>
       </c>
-      <c r="H169" s="38">
+      <c r="H169" s="39">
         <v>0</v>
       </c>
       <c r="I169" s="21"/>
       <c r="J169" s="21"/>
-      <c r="K169" s="45">
+      <c r="K169" s="46">
         <v>2080</v>
       </c>
       <c r="L169" s="21"/>
       <c r="M169" s="21"/>
-      <c r="N169" s="42">
+      <c r="N169" s="43">
         <v>7280</v>
       </c>
       <c r="O169" s="21"/>
@@ -11237,7 +11549,7 @@
       <c r="AW169" s="21"/>
       <c r="AX169" s="21"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:18">
       <c r="A170" s="20">
         <v>167</v>
       </c>
@@ -11249,14 +11561,17 @@
       </c>
       <c r="F170" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G170" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H170" s="38">
-        <v>0</v>
+        <v>1560</v>
+      </c>
+      <c r="H170" s="39">
+        <v>0</v>
+      </c>
+      <c r="R170" s="47">
+        <v>1560</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -11277,10 +11592,10 @@
         <f t="shared" si="11"/>
         <v>2080</v>
       </c>
-      <c r="H171" s="38">
-        <v>0</v>
-      </c>
-      <c r="K171" s="46">
+      <c r="H171" s="39">
+        <v>0</v>
+      </c>
+      <c r="K171" s="47">
         <v>2080</v>
       </c>
     </row>
@@ -11288,7 +11603,7 @@
       <c r="A172" s="20">
         <v>169</v>
       </c>
-      <c r="C172" s="47" t="s">
+      <c r="C172" s="48" t="s">
         <v>212</v>
       </c>
       <c r="D172" s="20" t="s">
@@ -11305,11 +11620,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H172" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="H172" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="20">
         <v>170</v>
       </c>
@@ -11321,17 +11636,20 @@
       </c>
       <c r="F173" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G173" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H173" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>2080</v>
+      </c>
+      <c r="H173" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="20">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="20">
         <v>171</v>
       </c>
@@ -11343,23 +11661,26 @@
       </c>
       <c r="F174" s="19">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G174" s="19">
         <f t="shared" si="11"/>
+        <v>4160</v>
+      </c>
+      <c r="H174" s="39">
+        <v>0</v>
+      </c>
+      <c r="L174" s="47">
+        <v>1040</v>
+      </c>
+      <c r="N174" s="47">
+        <v>1040</v>
+      </c>
+      <c r="O174" s="47">
         <v>2080</v>
       </c>
-      <c r="H174" s="38">
-        <v>0</v>
-      </c>
-      <c r="L174" s="46">
-        <v>1040</v>
-      </c>
-      <c r="N174" s="46">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" s="20">
         <v>172</v>
       </c>
@@ -11371,16 +11692,19 @@
       </c>
       <c r="F175" s="19">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G175" s="19">
         <f t="shared" si="11"/>
+        <v>4160</v>
+      </c>
+      <c r="H175" s="39">
+        <v>0</v>
+      </c>
+      <c r="M175" s="20">
         <v>2080</v>
       </c>
-      <c r="H175" s="38">
-        <v>0</v>
-      </c>
-      <c r="M175" s="20">
+      <c r="P175" s="20">
         <v>2080</v>
       </c>
     </row>
@@ -11401,11 +11725,11 @@
   <dimension ref="A1:AV175"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N168" sqref="N168"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11553,14 +11877,14 @@
       <c r="E2" s="23"/>
       <c r="F2" s="24">
         <f>SUM(H3:H1032)</f>
-        <v>284000</v>
+        <v>481000</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="26">
         <f t="shared" ref="H2:H35" si="0">SUM(I2:AM2)</f>
-        <v>284000</v>
+        <v>481000</v>
       </c>
       <c r="I2" s="29">
         <f>SUM(I3:I1032)</f>
@@ -11588,19 +11912,19 @@
       </c>
       <c r="O2" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="P2" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87100</v>
       </c>
       <c r="Q2" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="R2" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52500</v>
       </c>
       <c r="S2" s="29">
         <f t="shared" si="1"/>
@@ -11779,7 +12103,7 @@
       </c>
       <c r="H4" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -11787,7 +12111,9 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="O4" s="30">
+        <v>2000</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -11839,7 +12165,7 @@
       </c>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -11850,7 +12176,9 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="P5" s="21">
+        <v>2000</v>
+      </c>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
@@ -11907,7 +12235,7 @@
       </c>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I6" s="30">
         <v>2000</v>
@@ -11920,7 +12248,9 @@
         <v>2000</v>
       </c>
       <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="P6" s="30">
+        <v>2000</v>
+      </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
@@ -12042,7 +12372,7 @@
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -12053,7 +12383,9 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="P8" s="21">
+        <v>2000</v>
+      </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
@@ -12170,7 +12502,7 @@
       </c>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="21">
         <v>2500</v>
@@ -12185,9 +12517,13 @@
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="P10" s="21">
+        <v>3000</v>
+      </c>
       <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
+      <c r="R10" s="21">
+        <v>2000</v>
+      </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
@@ -12367,7 +12703,7 @@
       </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -12378,7 +12714,9 @@
         <v>5000</v>
       </c>
       <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="P13" s="30">
+        <v>5000</v>
+      </c>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
@@ -12435,7 +12773,7 @@
       </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="30">
@@ -12447,7 +12785,9 @@
       <c r="N14" s="21">
         <v>4000</v>
       </c>
-      <c r="O14" s="21"/>
+      <c r="O14" s="21">
+        <v>2000</v>
+      </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -13094,7 +13434,7 @@
       </c>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -13103,8 +13443,12 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="P24" s="21">
+        <v>600</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>1400</v>
+      </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
@@ -13160,7 +13504,7 @@
       </c>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -13172,7 +13516,9 @@
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="Q25" s="21">
+        <v>2000</v>
+      </c>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
@@ -13228,7 +13574,7 @@
       </c>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -13239,7 +13585,9 @@
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="P26" s="30">
+        <v>5000</v>
+      </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -13290,7 +13638,7 @@
       </c>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21">
@@ -13305,9 +13653,13 @@
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="P27" s="21">
+        <v>1500</v>
+      </c>
       <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
+      <c r="R27" s="21">
+        <v>1500</v>
+      </c>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
@@ -13359,7 +13711,7 @@
       </c>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -13370,7 +13722,9 @@
       </c>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
+      <c r="P28" s="21">
+        <v>1000</v>
+      </c>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -13616,7 +13970,7 @@
       </c>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I32" s="30">
         <v>10000</v>
@@ -13628,7 +13982,9 @@
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="Q32" s="30">
+        <v>5000</v>
+      </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
@@ -13675,7 +14031,7 @@
       </c>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -13684,7 +14040,9 @@
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
+      <c r="P33" s="21">
+        <v>1000</v>
+      </c>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
@@ -13738,7 +14096,7 @@
       </c>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I34" s="21">
         <v>2000</v>
@@ -13749,7 +14107,9 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
+      <c r="P34" s="21">
+        <v>2000</v>
+      </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
@@ -13800,7 +14160,7 @@
       </c>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -13809,7 +14169,9 @@
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
+      <c r="P35" s="21">
+        <v>2000</v>
+      </c>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
@@ -13923,7 +14285,7 @@
       </c>
       <c r="H37" s="19">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -13935,7 +14297,9 @@
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="21">
+        <v>5000</v>
+      </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
@@ -14175,7 +14539,7 @@
       </c>
       <c r="H41" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -14185,7 +14549,9 @@
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+      <c r="Q41" s="21">
+        <v>2000</v>
+      </c>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
@@ -14235,7 +14601,7 @@
       </c>
       <c r="H42" s="19">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21">
@@ -14248,7 +14614,9 @@
       </c>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
+      <c r="P42" s="21">
+        <v>2000</v>
+      </c>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
@@ -14302,7 +14670,7 @@
       </c>
       <c r="H43" s="19">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -14315,9 +14683,13 @@
       </c>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
+      <c r="P43" s="21">
+        <v>4000</v>
+      </c>
       <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
+      <c r="R43" s="21">
+        <v>2000</v>
+      </c>
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
@@ -14428,7 +14800,7 @@
       </c>
       <c r="H45" s="19">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21">
@@ -14439,7 +14811,9 @@
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
+      <c r="P45" s="21">
+        <v>5000</v>
+      </c>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
@@ -14493,7 +14867,7 @@
       </c>
       <c r="H46" s="19">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -14506,7 +14880,9 @@
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
+      <c r="R46" s="30">
+        <v>6000</v>
+      </c>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
@@ -14625,7 +15001,7 @@
       </c>
       <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
@@ -14636,7 +15012,9 @@
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
+      <c r="R48" s="30">
+        <v>2000</v>
+      </c>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
@@ -14691,7 +15069,7 @@
       </c>
       <c r="H49" s="19">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -14704,7 +15082,9 @@
         <v>2000</v>
       </c>
       <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
+      <c r="P49" s="21">
+        <v>2000</v>
+      </c>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
@@ -14761,7 +15141,7 @@
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -14774,7 +15154,9 @@
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
+      <c r="R50" s="30">
+        <v>2000</v>
+      </c>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
@@ -15005,7 +15387,7 @@
       </c>
       <c r="H54" s="19">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
@@ -15018,7 +15400,9 @@
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
+      <c r="R54" s="30">
+        <v>4000</v>
+      </c>
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
@@ -15070,7 +15454,7 @@
       </c>
       <c r="H55" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
@@ -15078,7 +15462,9 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
+      <c r="O55" s="30">
+        <v>2000</v>
+      </c>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
@@ -15258,7 +15644,7 @@
       </c>
       <c r="H58" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -15268,7 +15654,9 @@
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
+      <c r="Q58" s="21">
+        <v>2000</v>
+      </c>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
       <c r="T58" s="21"/>
@@ -15512,7 +15900,7 @@
       </c>
       <c r="H62" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
@@ -15521,7 +15909,9 @@
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
       <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
+      <c r="P62" s="21">
+        <v>10000</v>
+      </c>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
@@ -15706,7 +16096,7 @@
       </c>
       <c r="H65" s="19">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -15718,7 +16108,9 @@
       <c r="N65" s="21"/>
       <c r="O65" s="21"/>
       <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
+      <c r="Q65" s="30">
+        <v>2000</v>
+      </c>
       <c r="R65" s="21"/>
       <c r="S65" s="21"/>
       <c r="T65" s="21"/>
@@ -15771,7 +16163,7 @@
       </c>
       <c r="H66" s="19">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="30">
@@ -15783,7 +16175,9 @@
       <c r="N66" s="21"/>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
+      <c r="Q66" s="32">
+        <v>6000</v>
+      </c>
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
       <c r="T66" s="21"/>
@@ -15890,7 +16284,7 @@
       </c>
       <c r="H68" s="19">
         <f t="shared" ref="H68:H97" si="3">SUM(I68:AM68)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
@@ -15900,7 +16294,9 @@
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
+      <c r="Q68" s="21">
+        <v>6000</v>
+      </c>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
       <c r="T68" s="21"/>
@@ -16066,7 +16462,7 @@
       </c>
       <c r="H71" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
@@ -16076,7 +16472,9 @@
       <c r="N71" s="21"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
+      <c r="Q71" s="21">
+        <v>2000</v>
+      </c>
       <c r="R71" s="21"/>
       <c r="S71" s="21"/>
       <c r="T71" s="21"/>
@@ -16126,7 +16524,7 @@
       </c>
       <c r="H72" s="19">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
@@ -16140,7 +16538,9 @@
       <c r="N72" s="21"/>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
+      <c r="Q72" s="30">
+        <v>5000</v>
+      </c>
       <c r="R72" s="21"/>
       <c r="S72" s="21"/>
       <c r="T72" s="21"/>
@@ -16506,7 +16906,7 @@
       </c>
       <c r="H78" s="19">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I78" s="21"/>
       <c r="J78" s="30">
@@ -16516,7 +16916,9 @@
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
       <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
+      <c r="O78" s="30">
+        <v>6000</v>
+      </c>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
@@ -16571,7 +16973,7 @@
       </c>
       <c r="H79" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
@@ -16582,7 +16984,9 @@
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
+      <c r="R79" s="30">
+        <v>2000</v>
+      </c>
       <c r="S79" s="21"/>
       <c r="T79" s="21"/>
       <c r="U79" s="21"/>
@@ -16921,7 +17325,7 @@
       </c>
       <c r="H85" s="19">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="30">
@@ -16932,7 +17336,9 @@
       <c r="M85" s="21"/>
       <c r="N85" s="21"/>
       <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
+      <c r="P85" s="30">
+        <v>5000</v>
+      </c>
       <c r="Q85" s="21"/>
       <c r="R85" s="21"/>
       <c r="S85" s="21"/>
@@ -17112,7 +17518,7 @@
       </c>
       <c r="H88" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
@@ -17122,7 +17528,9 @@
       <c r="N88" s="21"/>
       <c r="O88" s="21"/>
       <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
+      <c r="Q88" s="30">
+        <v>2000</v>
+      </c>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
       <c r="T88" s="21"/>
@@ -17226,7 +17634,7 @@
       </c>
       <c r="H90" s="19">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
@@ -17239,7 +17647,9 @@
       <c r="O90" s="21"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
+      <c r="R90" s="30">
+        <v>500</v>
+      </c>
       <c r="S90" s="21"/>
       <c r="T90" s="21"/>
       <c r="U90" s="21"/>
@@ -17624,7 +18034,7 @@
       </c>
       <c r="H97" s="19">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
@@ -17635,8 +18045,12 @@
         <v>1000</v>
       </c>
       <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
+      <c r="P97" s="30">
+        <v>1000</v>
+      </c>
+      <c r="Q97" s="32">
+        <v>-4000</v>
+      </c>
       <c r="R97" s="21"/>
       <c r="S97" s="21"/>
       <c r="T97" s="21"/>
@@ -18102,7 +18516,7 @@
       </c>
       <c r="H106" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
@@ -18111,7 +18525,9 @@
       <c r="M106" s="21"/>
       <c r="N106" s="21"/>
       <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
+      <c r="P106" s="21">
+        <v>1000</v>
+      </c>
       <c r="Q106" s="21"/>
       <c r="R106" s="21"/>
       <c r="S106" s="21"/>
@@ -18404,7 +18820,7 @@
       <c r="AK111" s="21"/>
       <c r="AL111" s="21"/>
     </row>
-    <row r="112" spans="3:14">
+    <row r="112" spans="3:16">
       <c r="C112" s="20">
         <v>109</v>
       </c>
@@ -18416,13 +18832,16 @@
       </c>
       <c r="H112" s="19">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N112" s="20">
         <v>4000</v>
       </c>
-    </row>
-    <row r="113" spans="3:13">
+      <c r="P112" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" spans="3:18">
       <c r="C113" s="20">
         <v>110</v>
       </c>
@@ -18434,12 +18853,15 @@
       </c>
       <c r="H113" s="19">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K113" s="20">
         <v>2000</v>
       </c>
       <c r="M113" s="20">
+        <v>2000</v>
+      </c>
+      <c r="R113" s="20">
         <v>2000</v>
       </c>
     </row>
@@ -18503,10 +18925,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:8">
+    <row r="118" spans="3:18">
       <c r="C118" s="20">
         <v>115</v>
       </c>
+      <c r="E118" s="20">
+        <v>9771372037</v>
+      </c>
       <c r="F118" s="20" t="s">
         <v>132</v>
       </c>
@@ -18515,7 +18940,13 @@
       </c>
       <c r="H118" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="P118" s="20">
+        <v>6000</v>
+      </c>
+      <c r="R118" s="20">
+        <v>3000</v>
       </c>
     </row>
     <row r="119" spans="3:8">
@@ -18566,7 +18997,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="3:14">
+    <row r="122" spans="3:18">
       <c r="C122" s="20">
         <v>119</v>
       </c>
@@ -18578,10 +19009,16 @@
       </c>
       <c r="H122" s="19">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N122" s="20">
         <v>4000</v>
+      </c>
+      <c r="P122" s="20">
+        <v>2000</v>
+      </c>
+      <c r="R122" s="20">
+        <v>2000</v>
       </c>
     </row>
     <row r="123" spans="3:8">
@@ -18599,7 +19036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:14">
+    <row r="124" spans="3:18">
       <c r="C124" s="20">
         <v>121</v>
       </c>
@@ -18611,13 +19048,19 @@
       </c>
       <c r="H124" s="19">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="K124" s="20">
         <v>2000</v>
       </c>
       <c r="N124" s="20">
         <v>1000</v>
+      </c>
+      <c r="P124" s="20">
+        <v>1000</v>
+      </c>
+      <c r="R124" s="20">
+        <v>2000</v>
       </c>
     </row>
     <row r="125" spans="3:8">
@@ -18752,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:11">
+    <row r="134" spans="3:18">
       <c r="C134" s="20">
         <v>131</v>
       </c>
@@ -18767,10 +19210,16 @@
       </c>
       <c r="H134" s="19">
         <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="K134" s="33">
         <v>1000</v>
       </c>
-      <c r="K134" s="32">
-        <v>1000</v>
+      <c r="P134" s="33">
+        <v>2000</v>
+      </c>
+      <c r="R134" s="33">
+        <v>2000</v>
       </c>
     </row>
     <row r="135" spans="3:13">
@@ -18791,7 +19240,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="136" spans="3:8">
+    <row r="136" spans="3:16">
       <c r="C136" s="20">
         <v>133</v>
       </c>
@@ -18803,7 +19252,10 @@
       </c>
       <c r="H136" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="P136" s="20">
+        <v>3000</v>
       </c>
     </row>
     <row r="137" spans="3:8">
@@ -18818,7 +19270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:8">
+    <row r="138" spans="3:18">
       <c r="C138" s="20">
         <v>135</v>
       </c>
@@ -18830,7 +19282,10 @@
       </c>
       <c r="H138" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="R138" s="20">
+        <v>2000</v>
       </c>
     </row>
     <row r="139" spans="3:8">
@@ -18863,10 +19318,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:8">
+    <row r="141" spans="3:18">
       <c r="C141" s="20">
         <v>138</v>
       </c>
+      <c r="D141" s="20" t="s">
+        <v>305</v>
+      </c>
       <c r="F141" s="20" t="s">
         <v>82</v>
       </c>
@@ -18875,13 +19333,22 @@
       </c>
       <c r="H141" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="3:13">
+        <v>7000</v>
+      </c>
+      <c r="P141" s="33">
+        <v>4000</v>
+      </c>
+      <c r="R141" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="142" spans="3:18">
       <c r="C142" s="20">
         <v>139</v>
       </c>
+      <c r="D142" s="20" t="s">
+        <v>306</v>
+      </c>
       <c r="F142" s="20" t="s">
         <v>82</v>
       </c>
@@ -18890,9 +19357,15 @@
       </c>
       <c r="H142" s="19">
         <f t="shared" si="5"/>
+        <v>18000</v>
+      </c>
+      <c r="M142" s="20">
         <v>6000</v>
       </c>
-      <c r="M142" s="20">
+      <c r="P142" s="33">
+        <v>6000</v>
+      </c>
+      <c r="R142" s="20">
         <v>6000</v>
       </c>
     </row>
@@ -19040,12 +19513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:13">
+    <row r="153" spans="3:18">
       <c r="C153" s="20">
         <v>150</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F153" s="20" t="s">
         <v>195</v>
@@ -19055,13 +19528,16 @@
       </c>
       <c r="H153" s="19">
         <f t="shared" si="5"/>
-        <v>5000</v>
-      </c>
-      <c r="K153" s="32">
+        <v>8000</v>
+      </c>
+      <c r="K153" s="33">
         <v>3000</v>
       </c>
       <c r="M153" s="20">
         <v>2000</v>
+      </c>
+      <c r="R153" s="33">
+        <v>3000</v>
       </c>
     </row>
     <row r="154" spans="3:8">
@@ -19136,10 +19612,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:8">
+    <row r="160" spans="3:16">
       <c r="C160" s="20">
         <v>157</v>
       </c>
+      <c r="E160" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="F160" s="20" t="s">
         <v>201</v>
       </c>
@@ -19148,15 +19627,18 @@
       </c>
       <c r="H160" s="19">
         <f t="shared" ref="H160:H175" si="6">SUM(I160:AM160)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="3:13">
+        <v>2000</v>
+      </c>
+      <c r="P160" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="161" spans="3:15">
       <c r="C161" s="20">
         <v>158</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F161" s="20" t="s">
         <v>203</v>
@@ -19166,12 +19648,15 @@
       </c>
       <c r="H161" s="19">
         <f t="shared" si="6"/>
-        <v>3000</v>
-      </c>
-      <c r="K161" s="32">
+        <v>5000</v>
+      </c>
+      <c r="K161" s="33">
         <v>1000</v>
       </c>
-      <c r="M161" s="32">
+      <c r="M161" s="33">
+        <v>2000</v>
+      </c>
+      <c r="O161" s="33">
         <v>2000</v>
       </c>
     </row>
@@ -19226,12 +19711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:14">
+    <row r="167" spans="3:17">
       <c r="C167" s="20">
         <v>164</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F167" s="20" t="s">
         <v>206</v>
@@ -19241,19 +19726,25 @@
       </c>
       <c r="H167" s="19">
         <f t="shared" si="6"/>
-        <v>12000</v>
-      </c>
-      <c r="L167" s="32">
+        <v>17000</v>
+      </c>
+      <c r="L167" s="33">
         <v>7000</v>
       </c>
-      <c r="N167" s="32">
+      <c r="N167" s="33">
         <v>5000</v>
       </c>
-    </row>
-    <row r="168" spans="3:8">
+      <c r="Q167" s="33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="168" spans="3:16">
       <c r="C168" s="20">
         <v>165</v>
       </c>
+      <c r="D168" s="20" t="s">
+        <v>311</v>
+      </c>
       <c r="F168" s="20" t="s">
         <v>206</v>
       </c>
@@ -19262,7 +19753,10 @@
       </c>
       <c r="H168" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="P168" s="33">
+        <v>2000</v>
       </c>
     </row>
     <row r="169" spans="3:11">
@@ -19270,7 +19764,7 @@
         <v>166</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E169" s="20">
         <v>7903748069</v>
@@ -19285,11 +19779,11 @@
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="K169" s="32">
+      <c r="K169" s="33">
         <v>2000</v>
       </c>
     </row>
-    <row r="170" spans="3:8">
+    <row r="170" spans="3:18">
       <c r="C170" s="20">
         <v>167</v>
       </c>
@@ -19301,7 +19795,10 @@
       </c>
       <c r="H170" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="R170" s="20">
+        <v>1500</v>
       </c>
     </row>
     <row r="171" spans="3:11">
@@ -19337,10 +19834,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:8">
+    <row r="173" spans="3:18">
       <c r="C173" s="20">
         <v>170</v>
       </c>
+      <c r="D173" s="20" t="s">
+        <v>313</v>
+      </c>
       <c r="F173" s="20" t="s">
         <v>206</v>
       </c>
@@ -19349,15 +19849,18 @@
       </c>
       <c r="H173" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="3:13">
+        <v>2000</v>
+      </c>
+      <c r="R173" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="174" spans="3:15">
       <c r="C174" s="20">
         <v>171</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F174" s="20" t="s">
         <v>215</v>
@@ -19367,16 +19870,19 @@
       </c>
       <c r="H174" s="19">
         <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="L174" s="32">
+        <v>4000</v>
+      </c>
+      <c r="L174" s="33">
         <v>1000</v>
       </c>
       <c r="M174" s="20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="175" spans="3:13">
+      <c r="O174" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="175" spans="3:18">
       <c r="C175" s="20">
         <v>172</v>
       </c>
@@ -19388,9 +19894,12 @@
       </c>
       <c r="H175" s="19">
         <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="M175" s="20">
         <v>2000</v>
       </c>
-      <c r="M175" s="20">
+      <c r="R175" s="20">
         <v>2000</v>
       </c>
     </row>
@@ -19400,16 +19909,17 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -19435,29 +19945,29 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E1" s="4">
         <f>ROUND(SUM(D3:D1032),0)</f>
-        <v>236700</v>
+        <v>274200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D2" s="7">
         <f>Orders!F2-Collection!H2</f>
-        <v>236700</v>
+        <v>274200</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(D3:D97)-D80</f>
-        <v>147700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>169200</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -19472,7 +19982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" hidden="1" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -19484,7 +19994,7 @@
       </c>
       <c r="D4" s="11">
         <f>Orders!F4-Collection!H4</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19529,7 +20039,7 @@
       </c>
       <c r="D7" s="11">
         <f>Orders!F7-Collection!H7</f>
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -19547,7 +20057,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -19589,7 +20099,7 @@
       </c>
       <c r="D11" s="11">
         <f>Orders!F11-Collection!H11</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -19607,7 +20117,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" hidden="1" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -19634,7 +20144,7 @@
       </c>
       <c r="D14" s="11">
         <f>Orders!F14-Collection!H14</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -19649,7 +20159,7 @@
       </c>
       <c r="D15" s="11">
         <f>Orders!F15-Collection!H15</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -19709,7 +20219,7 @@
       </c>
       <c r="D19" s="11">
         <f>Orders!F19-Collection!H19</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -19724,10 +20234,10 @@
       </c>
       <c r="D20" s="11">
         <f>Orders!F20-Collection!H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
@@ -19754,7 +20264,7 @@
       </c>
       <c r="D22" s="11">
         <f>Orders!F22-Collection!H22</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -19769,7 +20279,7 @@
       </c>
       <c r="D23" s="11">
         <f>Orders!F23-Collection!H23</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -19787,7 +20297,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" hidden="1" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
@@ -19799,10 +20309,10 @@
       </c>
       <c r="D25" s="11">
         <f>Orders!F25-Collection!H25</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -19814,7 +20324,7 @@
       </c>
       <c r="D26" s="11">
         <f>Orders!F26-Collection!H26</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -19829,7 +20339,7 @@
       </c>
       <c r="D27" s="11">
         <f>Orders!F27-Collection!H27</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -19844,10 +20354,10 @@
       </c>
       <c r="D28" s="11">
         <f>Orders!F28-Collection!H28</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
@@ -19877,7 +20387,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
@@ -19919,10 +20429,10 @@
       </c>
       <c r="D33" s="11">
         <f>Orders!F33-Collection!H33</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>51</v>
       </c>
@@ -19937,7 +20447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" hidden="1" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>51</v>
       </c>
@@ -19949,10 +20459,10 @@
       </c>
       <c r="D35" s="11">
         <f>Orders!F35-Collection!H35</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>51</v>
       </c>
@@ -19967,7 +20477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>51</v>
       </c>
@@ -19982,7 +20492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>51</v>
       </c>
@@ -20009,10 +20519,10 @@
       </c>
       <c r="D39" s="11">
         <f>Orders!F39-Collection!H39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
@@ -20042,7 +20552,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" hidden="1" spans="1:4">
       <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
@@ -20069,10 +20579,10 @@
       </c>
       <c r="D43" s="11">
         <f>Orders!F43-Collection!H43</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -20087,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" hidden="1" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>51</v>
       </c>
@@ -20099,10 +20609,10 @@
       </c>
       <c r="D45" s="11">
         <f>Orders!F45-Collection!H45</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>64</v>
       </c>
@@ -20114,10 +20624,10 @@
       </c>
       <c r="D46" s="11">
         <f>Orders!F46-Collection!H46</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>64</v>
       </c>
@@ -20132,7 +20642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>64</v>
       </c>
@@ -20159,10 +20669,10 @@
       </c>
       <c r="D49" s="14">
         <f>Orders!F49-Collection!H49</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:4">
       <c r="A50" s="9" t="s">
         <v>64</v>
       </c>
@@ -20192,7 +20702,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>64</v>
       </c>
@@ -20219,7 +20729,7 @@
       </c>
       <c r="D53" s="11">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -20237,7 +20747,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>64</v>
       </c>
@@ -20252,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" hidden="1" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>64</v>
       </c>
@@ -20267,7 +20777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>64</v>
       </c>
@@ -20282,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="9" t="s">
         <v>77</v>
       </c>
@@ -20294,7 +20804,7 @@
       </c>
       <c r="D58" s="11">
         <f>Orders!F58-Collection!H58</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -20312,7 +20822,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>77</v>
       </c>
@@ -20339,10 +20849,10 @@
       </c>
       <c r="D61" s="11">
         <f>Orders!F61-Collection!H61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>277</v>
       </c>
@@ -20354,7 +20864,7 @@
       </c>
       <c r="D62" s="11">
         <f>Orders!F62-Collection!H62</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -20372,9 +20882,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="9" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="B64" s="9">
         <v>9931812966</v>
@@ -20387,7 +20897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>88</v>
       </c>
@@ -20399,7 +20909,7 @@
       </c>
       <c r="D65" s="11">
         <f>Orders!F65-Collection!H65</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -20414,7 +20924,7 @@
       </c>
       <c r="D66" s="11">
         <f>Orders!F66-Collection!H66</f>
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -20429,7 +20939,7 @@
       </c>
       <c r="D67" s="11">
         <f>Orders!F67-Collection!H67</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -20444,10 +20954,10 @@
       </c>
       <c r="D68" s="11">
         <f>Orders!F68-Collection!H68</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>93</v>
       </c>
@@ -20462,7 +20972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>93</v>
       </c>
@@ -20477,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>93</v>
       </c>
@@ -20489,7 +20999,7 @@
       </c>
       <c r="D71" s="11">
         <f>Orders!F71-Collection!H71</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -20504,7 +21014,7 @@
       </c>
       <c r="D72" s="11">
         <f>Orders!F72-Collection!H72</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -20519,7 +21029,7 @@
       </c>
       <c r="D73" s="11">
         <f>Orders!F73-Collection!H73</f>
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -20537,7 +21047,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>93</v>
       </c>
@@ -20552,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>93</v>
       </c>
@@ -20579,7 +21089,7 @@
       </c>
       <c r="D77" s="11">
         <f>Orders!F77-Collection!H77</f>
-        <v>3800</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -20594,10 +21104,10 @@
       </c>
       <c r="D78" s="11">
         <f>Orders!F78-Collection!H78</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>103</v>
       </c>
@@ -20609,10 +21119,10 @@
       </c>
       <c r="D79" s="11">
         <f>Orders!F79-Collection!H79</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
@@ -20635,10 +21145,10 @@
       </c>
       <c r="D81" s="11">
         <f>Orders!F81-Collection!H81</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10" t="s">
@@ -20649,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>111</v>
       </c>
@@ -20664,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10" t="s">
@@ -20705,7 +21215,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>114</v>
       </c>
@@ -20720,7 +21230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" hidden="1" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>118</v>
       </c>
@@ -20735,7 +21245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
@@ -20758,7 +21268,7 @@
       </c>
       <c r="D90" s="11">
         <f>Orders!F90-Collection!H90</f>
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -20773,12 +21283,12 @@
       </c>
       <c r="D91" s="11">
         <f>Orders!F91-Collection!H91</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B92" s="9">
         <v>7992363545</v>
@@ -20791,7 +21301,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" hidden="1" spans="1:4">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10" t="s">
@@ -20817,7 +21327,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
@@ -20828,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
@@ -20840,35 +21350,39 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
+      <c r="A97" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="9">
+        <v>9939935008</v>
+      </c>
       <c r="C97" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="11">
         <f>Orders!F97-Collection!H97</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="17">
+      <c r="A98" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16">
         <v>0.1</v>
       </c>
       <c r="E98" s="8">
         <f>SUM(D99:D175)</f>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:4">
       <c r="A99" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="18">
+      <c r="B99" s="17">
         <v>9852773633</v>
       </c>
       <c r="C99" s="9" t="s">
@@ -20879,11 +21393,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" hidden="1" spans="1:4">
       <c r="A100" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="15"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="9" t="s">
         <v>134</v>
       </c>
@@ -20892,22 +21406,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" hidden="1" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="15"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="9"/>
       <c r="D101" s="11">
         <f>Orders!F101-Collection!H101</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="15"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="9" t="s">
         <v>135</v>
       </c>
@@ -20916,11 +21430,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="15">
+      <c r="B103" s="18">
         <v>9122190230</v>
       </c>
       <c r="C103" s="9" t="s">
@@ -20931,11 +21445,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="18">
         <v>9122242352</v>
       </c>
       <c r="C104" s="9" t="s">
@@ -20946,22 +21460,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" hidden="1" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="15"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="9"/>
       <c r="D105" s="11">
         <f>Orders!F105-Collection!H105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" hidden="1" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B106" s="15"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="9" t="s">
         <v>140</v>
       </c>
@@ -20974,7 +21488,7 @@
       <c r="A107" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B107" s="15">
+      <c r="B107" s="18">
         <v>7979719608</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -20982,14 +21496,14 @@
       </c>
       <c r="D107" s="11">
         <f>Orders!F107-Collection!H107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B108" s="15"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="9" t="s">
         <v>143</v>
       </c>
@@ -20998,11 +21512,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" hidden="1" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B109" s="15"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="9" t="s">
         <v>144</v>
       </c>
@@ -21011,11 +21525,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" hidden="1" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B110" s="15"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="9" t="s">
         <v>145</v>
       </c>
@@ -21024,11 +21538,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" hidden="1" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="18">
         <v>9006359166</v>
       </c>
       <c r="C111" s="9" t="s">
@@ -21043,7 +21557,7 @@
       <c r="A112" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="15">
+      <c r="B112" s="18">
         <v>8210148576</v>
       </c>
       <c r="C112" s="9" t="s">
@@ -21058,7 +21572,7 @@
       <c r="A113" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B113" s="18">
         <v>7258828840</v>
       </c>
       <c r="C113" s="9" t="s">
@@ -21066,14 +21580,14 @@
       </c>
       <c r="D113" s="11">
         <f>Orders!F113-Collection!H113</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="114" hidden="1" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="15"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="9" t="s">
         <v>152</v>
       </c>
@@ -21082,11 +21596,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" hidden="1" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B115" s="15">
+      <c r="B115" s="18">
         <v>9852620786</v>
       </c>
       <c r="C115" s="9" t="s">
@@ -21097,11 +21611,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" hidden="1" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="18">
         <v>7004129753</v>
       </c>
       <c r="C116" s="9" t="s">
@@ -21112,11 +21626,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" hidden="1" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="15">
+      <c r="B117" s="18">
         <v>7004308089</v>
       </c>
       <c r="C117" s="9" t="s">
@@ -21131,7 +21645,7 @@
       <c r="A118" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B118" s="15">
+      <c r="B118" s="18">
         <v>748803334</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -21142,11 +21656,11 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" hidden="1" spans="1:4">
       <c r="A119" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B119" s="15">
+      <c r="B119" s="18">
         <v>9199240992</v>
       </c>
       <c r="C119" s="9" t="s">
@@ -21157,11 +21671,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" hidden="1" spans="1:4">
       <c r="A120" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B120" s="15"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="9" t="s">
         <v>163</v>
       </c>
@@ -21170,11 +21684,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" hidden="1" spans="1:4">
       <c r="A121" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B121" s="15">
+      <c r="B121" s="18">
         <v>9931256580</v>
       </c>
       <c r="C121" s="9" t="s">
@@ -21189,7 +21703,7 @@
       <c r="A122" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B122" s="15">
+      <c r="B122" s="18">
         <v>9931070730</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -21197,14 +21711,14 @@
       </c>
       <c r="D122" s="11">
         <f>Orders!F122-Collection!H122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="123" hidden="1" spans="1:4">
       <c r="A123" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="15"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="9" t="s">
         <v>168</v>
       </c>
@@ -21213,11 +21727,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" hidden="1" spans="1:4">
       <c r="A124" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="15">
+      <c r="B124" s="18">
         <v>9852792631</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -21228,11 +21742,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" hidden="1" spans="1:4">
       <c r="A125" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="15">
+      <c r="B125" s="18">
         <v>7004129804</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -21243,11 +21757,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" hidden="1" spans="1:4">
       <c r="A126" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="15"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="9" t="s">
         <v>173</v>
       </c>
@@ -21256,11 +21770,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" hidden="1" spans="1:4">
       <c r="A127" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="15">
+      <c r="B127" s="18">
         <v>8235940652</v>
       </c>
       <c r="C127" s="9" t="s">
@@ -21271,11 +21785,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" hidden="1" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="15"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="9" t="s">
         <v>175</v>
       </c>
@@ -21284,22 +21798,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" hidden="1" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B129" s="15"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="9"/>
       <c r="D129" s="11">
         <f>Orders!F129-Collection!H129</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B130" s="15">
+      <c r="B130" s="18">
         <v>9097671230</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -21314,7 +21828,7 @@
       <c r="A131" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B131" s="15">
+      <c r="B131" s="18">
         <v>7482908246</v>
       </c>
       <c r="C131" s="9" t="s">
@@ -21322,25 +21836,25 @@
       </c>
       <c r="D131" s="11">
         <f>Orders!F131-Collection!H131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="132" hidden="1" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B132" s="15"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="9"/>
       <c r="D132" s="11">
         <f>Orders!F132-Collection!H132</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" hidden="1" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B133" s="15">
+      <c r="B133" s="18">
         <v>9939518710</v>
       </c>
       <c r="C133" s="9" t="s">
@@ -21355,7 +21869,7 @@
       <c r="A134" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B134" s="15">
+      <c r="B134" s="18">
         <v>8340109140</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -21366,11 +21880,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" hidden="1" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B135" s="15">
+      <c r="B135" s="18">
         <v>7004763796</v>
       </c>
       <c r="C135" s="9" t="s">
@@ -21381,11 +21895,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" hidden="1" spans="1:4">
       <c r="A136" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B136" s="15"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="9" t="s">
         <v>182</v>
       </c>
@@ -21394,11 +21908,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" hidden="1" spans="1:4">
       <c r="A137" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="15">
+      <c r="B137" s="18">
         <v>7033228726</v>
       </c>
       <c r="C137" s="9"/>
@@ -21407,11 +21921,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B138" s="15"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="9" t="s">
         <v>183</v>
       </c>
@@ -21420,11 +21934,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" hidden="1" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B139" s="15"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="9" t="s">
         <v>184</v>
       </c>
@@ -21433,11 +21947,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B140" s="15">
+      <c r="B140" s="18">
         <v>8825232517</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -21448,11 +21962,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" hidden="1" spans="1:4">
       <c r="A141" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B141" s="15">
+      <c r="B141" s="18">
         <v>9939163568</v>
       </c>
       <c r="C141" s="9" t="s">
@@ -21467,7 +21981,7 @@
       <c r="A142" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B142" s="15">
+      <c r="B142" s="18">
         <v>8804656537</v>
       </c>
       <c r="C142" s="9" t="s">
@@ -21478,11 +21992,11 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" hidden="1" spans="1:4">
       <c r="A143" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B143" s="15">
+      <c r="B143" s="18">
         <v>9798383030</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -21493,11 +22007,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" hidden="1" spans="1:4">
       <c r="A144" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B144" s="15">
+      <c r="B144" s="18">
         <v>9801442328</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -21508,11 +22022,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" hidden="1" spans="1:4">
       <c r="A145" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="15"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="9" t="s">
         <v>190</v>
       </c>
@@ -21521,11 +22035,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" hidden="1" spans="1:4">
       <c r="A146" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B146" s="15">
+      <c r="B146" s="18">
         <v>6207066085</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -21536,11 +22050,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" hidden="1" spans="1:4">
       <c r="A147" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B147" s="15"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="9" t="s">
         <v>193</v>
       </c>
@@ -21553,7 +22067,7 @@
       <c r="A148" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B148" s="15">
+      <c r="B148" s="18">
         <v>8207701228</v>
       </c>
       <c r="C148" s="9" t="s">
@@ -21561,36 +22075,36 @@
       </c>
       <c r="D148" s="11">
         <f>Orders!F148-Collection!H148</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="149" hidden="1" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B149" s="15"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="9"/>
       <c r="D149" s="11">
         <f>Orders!F149-Collection!H149</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" hidden="1" spans="1:4">
       <c r="A150" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B150" s="15"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="9"/>
       <c r="D150" s="11">
         <f>Orders!F150-Collection!H150</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B151" s="15">
+      <c r="B151" s="18">
         <v>9507432307</v>
       </c>
       <c r="C151" s="9" t="s">
@@ -21601,22 +22115,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" hidden="1" spans="1:4">
       <c r="A152" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B152" s="15"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="9"/>
       <c r="D152" s="11">
         <f>Orders!F152-Collection!H152</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" hidden="1" spans="1:4">
       <c r="A153" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B153" s="15">
+      <c r="B153" s="18">
         <v>9113391144</v>
       </c>
       <c r="C153" s="9" t="s">
@@ -21627,22 +22141,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" hidden="1" spans="1:4">
       <c r="A154" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B154" s="15"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="9"/>
       <c r="D154" s="11">
         <f>Orders!F154-Collection!H154</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B155" s="15"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="9" t="s">
         <v>200</v>
       </c>
@@ -21651,53 +22165,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" hidden="1" spans="1:4">
       <c r="A156" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B156" s="15"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="9"/>
       <c r="D156" s="11">
         <f>Orders!F156-Collection!H156</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" hidden="1" spans="1:4">
       <c r="A157" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B157" s="15"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="9"/>
       <c r="D157" s="11">
         <f>Orders!F157-Collection!H157</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" hidden="1" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="15"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="9"/>
       <c r="D158" s="11">
         <f>Orders!F158-Collection!H158</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" hidden="1" spans="1:4">
       <c r="A159" s="9"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="9"/>
       <c r="D159" s="11">
         <f>Orders!F159-Collection!H159</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B160" s="15">
+      <c r="B160" s="18">
         <v>9110027071</v>
       </c>
       <c r="C160" s="9" t="s">
@@ -21712,7 +22226,7 @@
       <c r="A161" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B161" s="15">
+      <c r="B161" s="18">
         <v>8210849560</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -21723,47 +22237,47 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" hidden="1" spans="1:4">
       <c r="A162" s="9"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="9"/>
       <c r="D162" s="11">
         <f>Orders!F162-Collection!H162</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" hidden="1" spans="1:4">
       <c r="A163" s="9"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="9"/>
       <c r="D163" s="11">
         <f>Orders!F163-Collection!H163</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" hidden="1" spans="1:4">
       <c r="A164" s="9"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="9"/>
       <c r="D164" s="11">
         <f>Orders!F164-Collection!H164</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" hidden="1" spans="1:4">
       <c r="A165" s="9"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="9"/>
       <c r="D165" s="11">
         <f>Orders!F165-Collection!H165</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" hidden="1" spans="1:4">
       <c r="A166" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B166" s="15"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="9" t="s">
         <v>205</v>
       </c>
@@ -21776,7 +22290,7 @@
       <c r="A167" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B167" s="15">
+      <c r="B167" s="18">
         <v>7903210589</v>
       </c>
       <c r="C167" s="9" t="s">
@@ -21784,14 +22298,14 @@
       </c>
       <c r="D167" s="11">
         <f>Orders!F167-Collection!H167</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="168" hidden="1" spans="1:4">
       <c r="A168" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B168" s="15">
+      <c r="B168" s="18">
         <v>6203201991</v>
       </c>
       <c r="C168" s="9" t="s">
@@ -21806,7 +22320,7 @@
       <c r="A169" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B169" s="15">
+      <c r="B169" s="18">
         <v>7903748069</v>
       </c>
       <c r="C169" s="9" t="s">
@@ -21817,11 +22331,11 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" hidden="1" spans="1:4">
       <c r="A170" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="15">
+      <c r="B170" s="18">
         <v>8709003781</v>
       </c>
       <c r="C170" s="9" t="s">
@@ -21832,11 +22346,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" hidden="1" spans="1:4">
       <c r="A171" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="15">
+      <c r="B171" s="18">
         <v>8789050082</v>
       </c>
       <c r="C171" s="9" t="s">
@@ -21847,11 +22361,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" hidden="1" spans="1:4">
       <c r="A172" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B172" s="15">
+      <c r="B172" s="18">
         <v>8002924498</v>
       </c>
       <c r="C172" s="9" t="s">
@@ -21862,11 +22376,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" hidden="1" spans="1:4">
       <c r="A173" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B173" s="15">
+      <c r="B173" s="18">
         <v>7050470759</v>
       </c>
       <c r="C173" s="9" t="s">
@@ -21877,11 +22391,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" hidden="1" spans="1:4">
       <c r="A174" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B174" s="15"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="9" t="s">
         <v>216</v>
       </c>
@@ -21890,11 +22404,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" hidden="1" spans="1:4">
       <c r="A175" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B175" s="15">
+      <c r="B175" s="18">
         <v>9852299198</v>
       </c>
       <c r="C175" s="9" t="s">
@@ -21907,6 +22421,24 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D175">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="300"/>
+        <filter val="1000"/>
+        <filter val="1100"/>
+        <filter val="2000"/>
+        <filter val="3000"/>
+        <filter val="4000"/>
+        <filter val="4800"/>
+        <filter val="5000"/>
+        <filter val="6000"/>
+        <filter val="7000"/>
+        <filter val="8000"/>
+        <filter val="18000"/>
+        <filter val="274200"/>
+        <filter val="0.1"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
